--- a/CRM/Mapeos_UBI_CRM_V2.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V2.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="263">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1228,9 +1228,6 @@
     <t>GVT_GEOLOC_CD</t>
   </si>
   <si>
-    <t>DIR</t>
-  </si>
-  <si>
     <t>Asignar nulo</t>
   </si>
   <si>
@@ -1240,18 +1237,6 @@
     <t>CHAR(24)</t>
   </si>
   <si>
-    <t>TEL (Telefono)</t>
-  </si>
-  <si>
-    <t>TEL (Fax)</t>
-  </si>
-  <si>
-    <t>UBI (Telefono)</t>
-  </si>
-  <si>
-    <t>UBI (Fax)</t>
-  </si>
-  <si>
     <t>Busqueda del correlativo Ubicación Telefono</t>
   </si>
   <si>
@@ -1270,18 +1255,12 @@
     <t>Calcular Id Unico en Sistema Fuente Fax</t>
   </si>
   <si>
-    <t>REL_INV_CON_UBI (Direccion)</t>
-  </si>
-  <si>
     <t>Busqueda Tipo de Relación Involucrado con Ubicación Direccion</t>
   </si>
   <si>
     <t>Asignar Rango</t>
   </si>
   <si>
-    <t>UBI (Direccion)</t>
-  </si>
-  <si>
     <t>Busqueda del correlativo Ubicación Direccion</t>
   </si>
   <si>
@@ -1291,12 +1270,6 @@
     <t>Calcular Id Unico en Sistema Fuente Direccion</t>
   </si>
   <si>
-    <t>REL_INV_CON_UBI (Telefono)</t>
-  </si>
-  <si>
-    <t>REL_INV_CON_UBI (Fax)</t>
-  </si>
-  <si>
     <t>Busqueda Tipo de Relación Involucrado con Ubicación Telefono</t>
   </si>
   <si>
@@ -1352,6 +1325,30 @@
   </si>
   <si>
     <t>Validaciones Generales Fuente PS_LOCATION_TBL /17. Búsqueda Tipo de Relación Involucrado con Ubicación FAX</t>
+  </si>
+  <si>
+    <t>Upsert UBI (Telefono)</t>
+  </si>
+  <si>
+    <t>Upsert UBI (Fax)</t>
+  </si>
+  <si>
+    <t>Upsert UBI (Direccion)</t>
+  </si>
+  <si>
+    <t>Upsert TEL (Telefono)</t>
+  </si>
+  <si>
+    <t>Upsert TEL (Fax)</t>
+  </si>
+  <si>
+    <t>Upsert REL_INV_CON_UBI (Direccion)</t>
+  </si>
+  <si>
+    <t>Upsert REL_INV_CON_UBI (Telefono)</t>
+  </si>
+  <si>
+    <t>Upsert REL_INV_CON_UBI (Fax)</t>
   </si>
 </sst>
 </file>
@@ -2462,6 +2459,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2522,42 +2552,9 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3038,7 +3035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3049,7 +3046,7 @@
   <dimension ref="B1:R61"/>
   <sheetViews>
     <sheetView topLeftCell="K27" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3086,28 +3083,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
       <c r="H3" s="59"/>
       <c r="I3" s="24" t="s">
@@ -3120,11 +3117,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61" t="s">
@@ -3137,11 +3134,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3153,29 +3150,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="124"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4875,7 +4872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
+    <sheetView topLeftCell="K6" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4913,26 +4910,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
       <c r="H3" s="59"/>
       <c r="I3" s="24" t="s">
@@ -4945,11 +4942,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61" t="s">
@@ -4962,11 +4959,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4978,29 +4975,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="124"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5562,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="L79" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5581,7 +5578,7 @@
     <col min="11" max="11" width="104.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="2"/>
@@ -5600,26 +5597,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="141"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
       <c r="H3" s="59"/>
       <c r="I3" s="24" t="s">
@@ -5632,11 +5629,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61" t="s">
@@ -5649,11 +5646,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5665,29 +5662,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="124"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5709,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="112" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -5752,23 +5749,23 @@
         <v>4</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="128"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="134">
+      <c r="I9" s="113">
         <v>61</v>
       </c>
-      <c r="J9" s="127" t="s">
-        <v>230</v>
+      <c r="J9" s="107" t="s">
+        <v>225</v>
       </c>
       <c r="K9" s="77" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L9" s="74"/>
-      <c r="M9" s="120">
+      <c r="M9" s="100">
         <v>61</v>
       </c>
       <c r="N9" s="98" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O9" s="98" t="s">
         <v>99</v>
@@ -5795,23 +5792,23 @@
         <v>3</v>
       </c>
       <c r="F10" s="36"/>
-      <c r="G10" s="129"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="46"/>
-      <c r="I10" s="124">
+      <c r="I10" s="104">
         <v>62</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L10" s="74"/>
-      <c r="M10" s="121">
+      <c r="M10" s="101">
         <v>62</v>
       </c>
       <c r="N10" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O10" s="97" t="s">
         <v>100</v>
@@ -5838,9 +5835,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="129"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="124">
+      <c r="I11" s="104">
         <v>63</v>
       </c>
       <c r="J11" s="31" t="s">
@@ -5850,11 +5847,11 @@
         <v>53</v>
       </c>
       <c r="L11" s="74"/>
-      <c r="M11" s="121">
+      <c r="M11" s="101">
         <v>63</v>
       </c>
       <c r="N11" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O11" s="97" t="s">
         <v>20</v>
@@ -5881,9 +5878,9 @@
         <v>30</v>
       </c>
       <c r="F12" s="36"/>
-      <c r="G12" s="129"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="124">
+      <c r="I12" s="104">
         <v>64</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -5893,11 +5890,11 @@
         <v>52</v>
       </c>
       <c r="L12" s="74"/>
-      <c r="M12" s="121">
+      <c r="M12" s="101">
         <v>64</v>
       </c>
       <c r="N12" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O12" s="97" t="s">
         <v>23</v>
@@ -5924,23 +5921,23 @@
         <v>30</v>
       </c>
       <c r="F13" s="36"/>
-      <c r="G13" s="129"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="124">
+      <c r="I13" s="104">
         <v>65</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>110</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L13" s="75"/>
-      <c r="M13" s="121">
+      <c r="M13" s="101">
         <v>65</v>
       </c>
       <c r="N13" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O13" s="97" t="s">
         <v>25</v>
@@ -5967,23 +5964,23 @@
         <v>30</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="124">
+      <c r="I14" s="104">
         <v>66</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="75"/>
-      <c r="M14" s="122">
+      <c r="M14" s="102">
         <v>68</v>
       </c>
       <c r="N14" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O14" s="97" t="s">
         <v>101</v>
@@ -6010,23 +6007,23 @@
         <v>5</v>
       </c>
       <c r="F15" s="36"/>
-      <c r="G15" s="130"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="124">
+      <c r="I15" s="104">
         <v>67</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K15" s="48" t="s">
         <v>177</v>
       </c>
       <c r="L15" s="75"/>
-      <c r="M15" s="122">
+      <c r="M15" s="102">
         <v>69</v>
       </c>
       <c r="N15" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O15" s="97" t="s">
         <v>103</v>
@@ -6053,23 +6050,23 @@
         <v>4000</v>
       </c>
       <c r="F16" s="36"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="124">
+      <c r="I16" s="104">
         <v>68</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="L16" s="75"/>
-      <c r="M16" s="123">
+      <c r="M16" s="103">
         <v>39</v>
       </c>
       <c r="N16" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O16" s="97" t="s">
         <v>104</v>
@@ -6096,9 +6093,9 @@
         <v>5</v>
       </c>
       <c r="F17" s="36"/>
-      <c r="G17" s="130"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="124">
+      <c r="I17" s="104">
         <v>69</v>
       </c>
       <c r="J17" s="31" t="s">
@@ -6108,11 +6105,11 @@
         <v>45</v>
       </c>
       <c r="L17" s="75"/>
-      <c r="M17" s="121">
+      <c r="M17" s="101">
         <v>63</v>
       </c>
       <c r="N17" s="97" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O17" s="97" t="s">
         <v>106</v>
@@ -6139,31 +6136,31 @@
         <v>10</v>
       </c>
       <c r="F18" s="36"/>
-      <c r="G18" s="130"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="124">
+      <c r="I18" s="104">
         <v>70</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>135</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L18" s="75"/>
-      <c r="M18" s="136">
+      <c r="M18" s="115">
         <v>66</v>
       </c>
-      <c r="N18" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="O18" s="137" t="s">
+      <c r="N18" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="137" t="s">
+      <c r="P18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="137" t="s">
+      <c r="Q18" s="116" t="s">
         <v>22</v>
       </c>
       <c r="R18" s="63"/>
@@ -6182,31 +6179,31 @@
         <v>7</v>
       </c>
       <c r="F19" s="36"/>
-      <c r="G19" s="130"/>
+      <c r="G19" s="110"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="124">
+      <c r="I19" s="104">
         <v>71</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L19" s="76"/>
-      <c r="M19" s="125">
-        <v>22</v>
-      </c>
-      <c r="N19" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="O19" s="119" t="s">
+      <c r="M19" s="105">
+        <v>22</v>
+      </c>
+      <c r="N19" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="O19" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="119" t="s">
+      <c r="P19" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="119" t="s">
+      <c r="Q19" s="99" t="s">
         <v>22</v>
       </c>
       <c r="R19" s="82"/>
@@ -6225,23 +6222,23 @@
         <v>1</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="130"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="46"/>
-      <c r="I20" s="124">
+      <c r="I20" s="104">
         <v>72</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>137</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="L20" s="75"/>
       <c r="M20" s="50">
         <v>73</v>
       </c>
       <c r="N20" s="98" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O20" s="98" t="s">
         <v>99</v>
@@ -6268,23 +6265,23 @@
         <v>30</v>
       </c>
       <c r="F21" s="36"/>
-      <c r="G21" s="130"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="124">
+      <c r="I21" s="104">
         <v>73</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L21" s="75"/>
       <c r="M21" s="87">
         <v>74</v>
       </c>
       <c r="N21" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O21" s="97" t="s">
         <v>100</v>
@@ -6311,23 +6308,23 @@
         <v>30</v>
       </c>
       <c r="F22" s="36"/>
-      <c r="G22" s="130"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="46"/>
-      <c r="I22" s="124">
+      <c r="I22" s="104">
         <v>74</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L22" s="75"/>
       <c r="M22" s="87">
         <v>63</v>
       </c>
       <c r="N22" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O22" s="97" t="s">
         <v>20</v>
@@ -6354,23 +6351,23 @@
         <v>10</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="130"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="124">
+      <c r="I23" s="104">
         <v>75</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L23" s="75"/>
       <c r="M23" s="87">
         <v>64</v>
       </c>
       <c r="N23" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O23" s="97" t="s">
         <v>23</v>
@@ -6397,23 +6394,23 @@
         <v>10</v>
       </c>
       <c r="F24" s="95"/>
-      <c r="G24" s="131"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="124">
+      <c r="I24" s="104">
         <v>76</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="L24" s="75"/>
       <c r="M24" s="87">
         <v>65</v>
       </c>
       <c r="N24" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O24" s="97" t="s">
         <v>25</v>
@@ -6440,23 +6437,23 @@
         <v>10</v>
       </c>
       <c r="F25" s="95"/>
-      <c r="G25" s="131"/>
+      <c r="G25" s="111"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="124">
+      <c r="I25" s="104">
         <v>77</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L25" s="75"/>
       <c r="M25" s="93">
         <v>78</v>
       </c>
       <c r="N25" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O25" s="97" t="s">
         <v>101</v>
@@ -6483,23 +6480,23 @@
         <v>10</v>
       </c>
       <c r="F26" s="95"/>
-      <c r="G26" s="131"/>
+      <c r="G26" s="111"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="124">
+      <c r="I26" s="104">
         <v>78</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L26" s="75"/>
       <c r="M26" s="93">
         <v>69</v>
       </c>
       <c r="N26" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O26" s="97" t="s">
         <v>103</v>
@@ -6526,23 +6523,23 @@
         <v>5</v>
       </c>
       <c r="F27" s="95"/>
-      <c r="G27" s="131"/>
+      <c r="G27" s="111"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="124">
+      <c r="I27" s="104">
         <v>79</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L27" s="75"/>
       <c r="M27" s="23">
         <v>41</v>
       </c>
       <c r="N27" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O27" s="97" t="s">
         <v>104</v>
@@ -6569,23 +6566,23 @@
         <v>30</v>
       </c>
       <c r="F28" s="95"/>
-      <c r="G28" s="131"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="124">
+      <c r="I28" s="104">
         <v>80</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>163</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L28" s="75"/>
       <c r="M28" s="87">
         <v>63</v>
       </c>
       <c r="N28" s="97" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O28" s="97" t="s">
         <v>106</v>
@@ -6612,31 +6609,31 @@
         <v>3</v>
       </c>
       <c r="F29" s="95"/>
-      <c r="G29" s="131"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="46"/>
-      <c r="I29" s="124">
+      <c r="I29" s="104">
         <v>81</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L29" s="75"/>
-      <c r="M29" s="138">
+      <c r="M29" s="117">
         <v>66</v>
       </c>
-      <c r="N29" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="O29" s="137" t="s">
+      <c r="N29" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="137" t="s">
+      <c r="P29" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="137" t="s">
+      <c r="Q29" s="116" t="s">
         <v>22</v>
       </c>
       <c r="R29" s="63"/>
@@ -6655,31 +6652,31 @@
         <v>254</v>
       </c>
       <c r="F30" s="95"/>
-      <c r="G30" s="131"/>
+      <c r="G30" s="111"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="135">
+      <c r="I30" s="114">
         <v>82</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L30" s="76"/>
       <c r="M30" s="80">
         <v>22</v>
       </c>
-      <c r="N30" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="O30" s="119" t="s">
+      <c r="N30" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="119" t="s">
+      <c r="P30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="Q30" s="119" t="s">
+      <c r="Q30" s="99" t="s">
         <v>22</v>
       </c>
       <c r="R30" s="82"/>
@@ -6704,7 +6701,7 @@
         <v>76</v>
       </c>
       <c r="N31" s="98" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O31" s="98" t="s">
         <v>99</v>
@@ -6737,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="N32" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O32" s="97" t="s">
         <v>100</v>
@@ -6770,7 +6767,7 @@
         <v>63</v>
       </c>
       <c r="N33" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O33" s="97" t="s">
         <v>20</v>
@@ -6803,7 +6800,7 @@
         <v>64</v>
       </c>
       <c r="N34" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O34" s="97" t="s">
         <v>23</v>
@@ -6836,7 +6833,7 @@
         <v>65</v>
       </c>
       <c r="N35" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O35" s="97" t="s">
         <v>25</v>
@@ -6869,7 +6866,7 @@
         <v>79</v>
       </c>
       <c r="N36" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O36" s="97" t="s">
         <v>101</v>
@@ -6902,7 +6899,7 @@
         <v>69</v>
       </c>
       <c r="N37" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O37" s="97" t="s">
         <v>103</v>
@@ -6935,7 +6932,7 @@
         <v>22</v>
       </c>
       <c r="N38" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O38" s="97" t="s">
         <v>104</v>
@@ -6968,7 +6965,7 @@
         <v>63</v>
       </c>
       <c r="N39" s="97" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O39" s="97" t="s">
         <v>106</v>
@@ -6997,19 +6994,19 @@
       <c r="F40" s="95"/>
       <c r="G40" s="39"/>
       <c r="L40" s="46"/>
-      <c r="M40" s="138">
+      <c r="M40" s="117">
         <v>66</v>
       </c>
-      <c r="N40" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="O40" s="137" t="s">
+      <c r="N40" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="O40" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="P40" s="137" t="s">
+      <c r="P40" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="137" t="s">
+      <c r="Q40" s="116" t="s">
         <v>22</v>
       </c>
       <c r="R40" s="63"/>
@@ -7033,16 +7030,16 @@
       <c r="M41" s="80">
         <v>22</v>
       </c>
-      <c r="N41" s="119" t="s">
-        <v>239</v>
-      </c>
-      <c r="O41" s="119" t="s">
+      <c r="N41" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="P41" s="119" t="s">
+      <c r="P41" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="Q41" s="119" t="s">
+      <c r="Q41" s="99" t="s">
         <v>22</v>
       </c>
       <c r="R41" s="82"/>
@@ -7067,7 +7064,7 @@
         <v>61</v>
       </c>
       <c r="N42" s="70" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O42" s="51" t="s">
         <v>99</v>
@@ -7100,7 +7097,7 @@
         <v>70</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O43" s="32" t="s">
         <v>115</v>
@@ -7133,7 +7130,7 @@
         <v>69</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O44" s="32" t="s">
         <v>116</v>
@@ -7166,7 +7163,7 @@
         <v>71</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O45" s="32" t="s">
         <v>117</v>
@@ -7199,7 +7196,7 @@
         <v>72</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O46" s="32" t="s">
         <v>118</v>
@@ -7232,7 +7229,7 @@
         <v>66</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O47" s="32" t="s">
         <v>119</v>
@@ -7265,7 +7262,7 @@
         <v>66</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O48" s="32" t="s">
         <v>121</v>
@@ -7298,7 +7295,7 @@
         <v>22</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O49" s="32" t="s">
         <v>123</v>
@@ -7331,7 +7328,7 @@
         <v>66</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O50" s="32" t="s">
         <v>125</v>
@@ -7364,7 +7361,7 @@
         <v>66</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O51" s="32" t="s">
         <v>127</v>
@@ -7397,7 +7394,7 @@
         <v>66</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O52" s="32" t="s">
         <v>129</v>
@@ -7430,7 +7427,7 @@
         <v>66</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O53" s="32" t="s">
         <v>130</v>
@@ -7463,7 +7460,7 @@
         <v>66</v>
       </c>
       <c r="N54" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O54" s="32" t="s">
         <v>131</v>
@@ -7496,7 +7493,7 @@
         <v>66</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O55" s="32" t="s">
         <v>132</v>
@@ -7529,7 +7526,7 @@
         <v>69</v>
       </c>
       <c r="N56" s="67" t="s">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O56" s="67" t="s">
         <v>133</v>
@@ -7557,12 +7554,12 @@
       </c>
       <c r="F57" s="95"/>
       <c r="G57" s="39"/>
-      <c r="L57" s="126"/>
+      <c r="L57" s="106"/>
       <c r="M57" s="69">
         <v>61</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O57" s="51" t="s">
         <v>99</v>
@@ -7595,7 +7592,7 @@
         <v>66</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O58" s="32" t="s">
         <v>139</v>
@@ -7628,7 +7625,7 @@
         <v>66</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O59" s="32" t="s">
         <v>141</v>
@@ -7661,7 +7658,7 @@
         <v>66</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O60" s="32" t="s">
         <v>142</v>
@@ -7694,13 +7691,13 @@
         <v>39</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O61" s="35" t="s">
         <v>143</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q61" s="32" t="s">
         <v>22</v>
@@ -7727,7 +7724,7 @@
         <v>40</v>
       </c>
       <c r="N62" s="67" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="O62" s="67" t="s">
         <v>144</v>
@@ -7755,12 +7752,12 @@
       </c>
       <c r="F63" s="95"/>
       <c r="G63" s="39"/>
-      <c r="L63" s="126"/>
+      <c r="L63" s="106"/>
       <c r="M63" s="69">
         <v>73</v>
       </c>
       <c r="N63" s="51" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O63" s="51" t="s">
         <v>99</v>
@@ -7793,7 +7790,7 @@
         <v>66</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O64" s="32" t="s">
         <v>139</v>
@@ -7826,7 +7823,7 @@
         <v>66</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O65" s="32" t="s">
         <v>141</v>
@@ -7859,7 +7856,7 @@
         <v>66</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O66" s="32" t="s">
         <v>142</v>
@@ -7892,13 +7889,13 @@
         <v>41</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O67" s="35" t="s">
         <v>143</v>
       </c>
       <c r="P67" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q67" s="32" t="s">
         <v>22</v>
@@ -7925,7 +7922,7 @@
         <v>40</v>
       </c>
       <c r="N68" s="67" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O68" s="67" t="s">
         <v>144</v>
@@ -7939,12 +7936,12 @@
       <c r="R68" s="82"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L69" s="126"/>
+      <c r="L69" s="106"/>
       <c r="M69" s="69">
         <v>63</v>
       </c>
       <c r="N69" s="51" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O69" s="51" t="s">
         <v>151</v>
@@ -7963,7 +7960,7 @@
         <v>75</v>
       </c>
       <c r="N70" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O70" s="35" t="s">
         <v>152</v>
@@ -7982,7 +7979,7 @@
         <v>67</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O71" s="32" t="s">
         <v>153</v>
@@ -8001,7 +7998,7 @@
         <v>76</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O72" s="35" t="s">
         <v>99</v>
@@ -8020,7 +8017,7 @@
         <v>80</v>
       </c>
       <c r="N73" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O73" s="32" t="s">
         <v>17</v>
@@ -8039,7 +8036,7 @@
         <v>63</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O74" s="32" t="s">
         <v>20</v>
@@ -8058,7 +8055,7 @@
         <v>64</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O75" s="32" t="s">
         <v>23</v>
@@ -8077,7 +8074,7 @@
         <v>65</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O76" s="35" t="s">
         <v>25</v>
@@ -8092,30 +8089,30 @@
     </row>
     <row r="77" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L77" s="85"/>
-      <c r="M77" s="139">
+      <c r="M77" s="118">
         <v>66</v>
       </c>
-      <c r="N77" s="140" t="s">
-        <v>236</v>
-      </c>
-      <c r="O77" s="140" t="s">
+      <c r="N77" s="119" t="s">
+        <v>260</v>
+      </c>
+      <c r="O77" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="P77" s="140" t="s">
+      <c r="P77" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q77" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="R77" s="141"/>
+      <c r="Q77" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="120"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L78" s="126"/>
+      <c r="L78" s="106"/>
       <c r="M78" s="69">
         <v>63</v>
       </c>
       <c r="N78" s="51" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O78" s="51" t="s">
         <v>151</v>
@@ -8134,7 +8131,7 @@
         <v>81</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O79" s="35" t="s">
         <v>152</v>
@@ -8153,7 +8150,7 @@
         <v>67</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O80" s="32" t="s">
         <v>153</v>
@@ -8172,7 +8169,7 @@
         <v>61</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O81" s="35" t="s">
         <v>99</v>
@@ -8191,7 +8188,7 @@
         <v>80</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O82" s="32" t="s">
         <v>17</v>
@@ -8210,7 +8207,7 @@
         <v>63</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O83" s="32" t="s">
         <v>20</v>
@@ -8229,7 +8226,7 @@
         <v>64</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O84" s="32" t="s">
         <v>23</v>
@@ -8248,7 +8245,7 @@
         <v>65</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="O85" s="35" t="s">
         <v>25</v>
@@ -8263,30 +8260,30 @@
     </row>
     <row r="86" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L86" s="85"/>
-      <c r="M86" s="139">
+      <c r="M86" s="118">
         <v>66</v>
       </c>
-      <c r="N86" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="O86" s="140" t="s">
+      <c r="N86" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="O86" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="P86" s="140" t="s">
+      <c r="P86" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q86" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="R86" s="141"/>
+      <c r="Q86" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="R86" s="120"/>
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L87" s="126"/>
+      <c r="L87" s="106"/>
       <c r="M87" s="69">
         <v>63</v>
       </c>
       <c r="N87" s="51" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O87" s="51" t="s">
         <v>151</v>
@@ -8305,7 +8302,7 @@
         <v>82</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O88" s="35" t="s">
         <v>152</v>
@@ -8324,7 +8321,7 @@
         <v>67</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O89" s="32" t="s">
         <v>153</v>
@@ -8343,7 +8340,7 @@
         <v>73</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O90" s="35" t="s">
         <v>99</v>
@@ -8362,7 +8359,7 @@
         <v>80</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O91" s="32" t="s">
         <v>17</v>
@@ -8381,7 +8378,7 @@
         <v>63</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O92" s="32" t="s">
         <v>20</v>
@@ -8400,7 +8397,7 @@
         <v>64</v>
       </c>
       <c r="N93" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O93" s="32" t="s">
         <v>23</v>
@@ -8419,7 +8416,7 @@
         <v>65</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O94" s="35" t="s">
         <v>25</v>
@@ -8434,11 +8431,11 @@
     </row>
     <row r="95" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L95" s="85"/>
-      <c r="M95" s="142">
+      <c r="M95" s="121">
         <v>66</v>
       </c>
       <c r="N95" s="89" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="O95" s="89" t="s">
         <v>27</v>

--- a/CRM/Mapeos_UBI_CRM_V2.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V2.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="267">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1349,6 +1349,18 @@
   </si>
   <si>
     <t>Upsert REL_INV_CON_UBI (Fax)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2209,6 +2221,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2297,7 +2318,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2487,11 +2508,8 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2555,6 +2573,10 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3035,7 +3057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3045,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="K27" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3083,28 +3105,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="10"/>
       <c r="H3" s="59"/>
       <c r="I3" s="24" t="s">
@@ -3117,11 +3139,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="7"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61" t="s">
@@ -3134,11 +3156,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3150,29 +3172,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="124"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3645,7 +3667,7 @@
       </c>
       <c r="L18" s="75"/>
       <c r="M18" s="65">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="N18" s="62" t="s">
         <v>134</v>
@@ -3835,7 +3857,7 @@
       </c>
       <c r="R22" s="48"/>
     </row>
-    <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="23">
         <v>15</v>
       </c>
@@ -3851,13 +3873,13 @@
       <c r="F23" s="36"/>
       <c r="G23" s="27"/>
       <c r="H23" s="73"/>
-      <c r="I23" s="44">
+      <c r="I23" s="47">
         <v>68</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="48" t="s">
         <v>175</v>
       </c>
       <c r="L23" s="84"/>
@@ -3893,8 +3915,17 @@
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="46"/>
-      <c r="L24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="47">
+        <v>69</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="L24" s="84"/>
       <c r="M24" s="47">
         <v>64</v>
       </c>
@@ -3912,7 +3943,7 @@
       </c>
       <c r="R24" s="48"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23">
         <v>17</v>
       </c>
@@ -3927,8 +3958,17 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="46"/>
-      <c r="L25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="44">
+        <v>70</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="140" t="s">
+        <v>266</v>
+      </c>
+      <c r="L25" s="84"/>
       <c r="M25" s="47">
         <v>65</v>
       </c>
@@ -4872,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4910,26 +4950,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="10"/>
       <c r="H3" s="59"/>
       <c r="I3" s="24" t="s">
@@ -4942,11 +4982,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="7"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61" t="s">
@@ -4959,11 +4999,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4975,29 +5015,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="124"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5357,7 +5397,7 @@
       </c>
       <c r="R15" s="53"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="23">
         <v>8</v>
       </c>
@@ -5373,13 +5413,13 @@
       <c r="F16" s="36"/>
       <c r="G16" s="27"/>
       <c r="H16" s="73"/>
-      <c r="I16" s="44">
+      <c r="I16" s="47">
         <v>23</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="48" t="s">
         <v>177</v>
       </c>
       <c r="L16" s="84"/>
@@ -5417,10 +5457,19 @@
       <c r="G17" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="L17" s="85"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="47">
+        <v>24</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="141"/>
       <c r="M17" s="88">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N17" s="89" t="s">
         <v>165</v>
@@ -5436,7 +5485,7 @@
       </c>
       <c r="R17" s="90"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
         <v>10</v>
       </c>
@@ -5451,7 +5500,16 @@
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="46"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="44">
+        <v>25</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="140" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="23">
@@ -5559,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L79" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87:L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5597,26 +5655,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="10"/>
       <c r="H3" s="59"/>
       <c r="I3" s="24" t="s">
@@ -5629,11 +5687,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="7"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61" t="s">
@@ -5646,11 +5704,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5662,29 +5720,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="124"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6106,7 +6164,7 @@
       </c>
       <c r="L17" s="75"/>
       <c r="M17" s="101">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="N17" s="97" t="s">
         <v>255</v>
@@ -6149,7 +6207,7 @@
       </c>
       <c r="L18" s="75"/>
       <c r="M18" s="115">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="N18" s="116" t="s">
         <v>255</v>
@@ -6578,8 +6636,8 @@
         <v>252</v>
       </c>
       <c r="L28" s="75"/>
-      <c r="M28" s="87">
-        <v>63</v>
+      <c r="M28" s="101">
+        <v>83</v>
       </c>
       <c r="N28" s="97" t="s">
         <v>256</v>
@@ -6621,8 +6679,8 @@
         <v>253</v>
       </c>
       <c r="L29" s="75"/>
-      <c r="M29" s="117">
-        <v>66</v>
+      <c r="M29" s="115">
+        <v>84</v>
       </c>
       <c r="N29" s="116" t="s">
         <v>256</v>
@@ -6653,14 +6711,14 @@
       </c>
       <c r="F30" s="95"/>
       <c r="G30" s="111"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="114">
+      <c r="H30" s="46"/>
+      <c r="I30" s="104">
         <v>82</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="K30" s="49" t="s">
+      <c r="K30" s="48" t="s">
         <v>254</v>
       </c>
       <c r="L30" s="76"/>
@@ -6695,8 +6753,18 @@
         <v>254</v>
       </c>
       <c r="F31" s="95"/>
-      <c r="G31" s="39"/>
-      <c r="L31" s="72"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="104">
+        <v>83</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" s="142"/>
       <c r="M31" s="50">
         <v>76</v>
       </c>
@@ -6714,7 +6782,7 @@
       </c>
       <c r="R31" s="52"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23">
         <v>24</v>
       </c>
@@ -6728,8 +6796,18 @@
         <v>254</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="39"/>
-      <c r="L32" s="46"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="114">
+        <v>84</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="140" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" s="75"/>
       <c r="M32" s="87">
         <v>77</v>
       </c>
@@ -6961,8 +7039,8 @@
       <c r="F39" s="95"/>
       <c r="G39" s="39"/>
       <c r="L39" s="46"/>
-      <c r="M39" s="87">
-        <v>63</v>
+      <c r="M39" s="101">
+        <v>83</v>
       </c>
       <c r="N39" s="97" t="s">
         <v>257</v>
@@ -6994,8 +7072,8 @@
       <c r="F40" s="95"/>
       <c r="G40" s="39"/>
       <c r="L40" s="46"/>
-      <c r="M40" s="117">
-        <v>66</v>
+      <c r="M40" s="115">
+        <v>84</v>
       </c>
       <c r="N40" s="116" t="s">
         <v>257</v>
@@ -7936,8 +8014,8 @@
       <c r="R68" s="82"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L69" s="106"/>
-      <c r="M69" s="69">
+      <c r="L69" s="72"/>
+      <c r="M69" s="143">
         <v>63</v>
       </c>
       <c r="N69" s="51" t="s">
@@ -7955,8 +8033,8 @@
       <c r="R69" s="71"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L70" s="73"/>
-      <c r="M70" s="47">
+      <c r="L70" s="46"/>
+      <c r="M70" s="104">
         <v>75</v>
       </c>
       <c r="N70" s="32" t="s">
@@ -7974,8 +8052,8 @@
       <c r="R70" s="48"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L71" s="73"/>
-      <c r="M71" s="47">
+      <c r="L71" s="46"/>
+      <c r="M71" s="104">
         <v>67</v>
       </c>
       <c r="N71" s="32" t="s">
@@ -7993,8 +8071,8 @@
       <c r="R71" s="48"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L72" s="73"/>
-      <c r="M72" s="47">
+      <c r="L72" s="46"/>
+      <c r="M72" s="104">
         <v>76</v>
       </c>
       <c r="N72" s="32" t="s">
@@ -8012,8 +8090,8 @@
       <c r="R72" s="48"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L73" s="73"/>
-      <c r="M73" s="47">
+      <c r="L73" s="46"/>
+      <c r="M73" s="104">
         <v>80</v>
       </c>
       <c r="N73" s="32" t="s">
@@ -8031,8 +8109,8 @@
       <c r="R73" s="48"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L74" s="73"/>
-      <c r="M74" s="47">
+      <c r="L74" s="46"/>
+      <c r="M74" s="104">
         <v>63</v>
       </c>
       <c r="N74" s="32" t="s">
@@ -8050,8 +8128,8 @@
       <c r="R74" s="48"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L75" s="73"/>
-      <c r="M75" s="47">
+      <c r="L75" s="46"/>
+      <c r="M75" s="104">
         <v>64</v>
       </c>
       <c r="N75" s="32" t="s">
@@ -8069,9 +8147,9 @@
       <c r="R75" s="48"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L76" s="73"/>
-      <c r="M76" s="47">
-        <v>65</v>
+      <c r="L76" s="46"/>
+      <c r="M76" s="101">
+        <v>83</v>
       </c>
       <c r="N76" s="32" t="s">
         <v>260</v>
@@ -8088,27 +8166,27 @@
       <c r="R76" s="48"/>
     </row>
     <row r="77" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L77" s="85"/>
-      <c r="M77" s="118">
-        <v>66</v>
-      </c>
-      <c r="N77" s="119" t="s">
+      <c r="L77" s="43"/>
+      <c r="M77" s="115">
+        <v>84</v>
+      </c>
+      <c r="N77" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="O77" s="119" t="s">
+      <c r="O77" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="P77" s="119" t="s">
+      <c r="P77" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="Q77" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="R77" s="120"/>
+      <c r="Q77" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="118"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L78" s="106"/>
-      <c r="M78" s="69">
+      <c r="L78" s="72"/>
+      <c r="M78" s="143">
         <v>63</v>
       </c>
       <c r="N78" s="51" t="s">
@@ -8126,8 +8204,8 @@
       <c r="R78" s="71"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L79" s="73"/>
-      <c r="M79" s="47">
+      <c r="L79" s="46"/>
+      <c r="M79" s="104">
         <v>81</v>
       </c>
       <c r="N79" s="32" t="s">
@@ -8145,8 +8223,8 @@
       <c r="R79" s="48"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L80" s="73"/>
-      <c r="M80" s="47">
+      <c r="L80" s="46"/>
+      <c r="M80" s="104">
         <v>67</v>
       </c>
       <c r="N80" s="32" t="s">
@@ -8164,8 +8242,8 @@
       <c r="R80" s="48"/>
     </row>
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L81" s="73"/>
-      <c r="M81" s="47">
+      <c r="L81" s="46"/>
+      <c r="M81" s="104">
         <v>61</v>
       </c>
       <c r="N81" s="32" t="s">
@@ -8183,8 +8261,8 @@
       <c r="R81" s="48"/>
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L82" s="73"/>
-      <c r="M82" s="47">
+      <c r="L82" s="46"/>
+      <c r="M82" s="104">
         <v>80</v>
       </c>
       <c r="N82" s="32" t="s">
@@ -8202,8 +8280,8 @@
       <c r="R82" s="48"/>
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L83" s="73"/>
-      <c r="M83" s="47">
+      <c r="L83" s="46"/>
+      <c r="M83" s="104">
         <v>63</v>
       </c>
       <c r="N83" s="32" t="s">
@@ -8221,8 +8299,8 @@
       <c r="R83" s="48"/>
     </row>
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L84" s="73"/>
-      <c r="M84" s="47">
+      <c r="L84" s="46"/>
+      <c r="M84" s="104">
         <v>64</v>
       </c>
       <c r="N84" s="32" t="s">
@@ -8240,9 +8318,9 @@
       <c r="R84" s="48"/>
     </row>
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L85" s="73"/>
-      <c r="M85" s="47">
-        <v>65</v>
+      <c r="L85" s="46"/>
+      <c r="M85" s="101">
+        <v>83</v>
       </c>
       <c r="N85" s="32" t="s">
         <v>261</v>
@@ -8259,27 +8337,27 @@
       <c r="R85" s="48"/>
     </row>
     <row r="86" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L86" s="85"/>
-      <c r="M86" s="118">
-        <v>66</v>
-      </c>
-      <c r="N86" s="119" t="s">
+      <c r="L86" s="43"/>
+      <c r="M86" s="115">
+        <v>84</v>
+      </c>
+      <c r="N86" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="O86" s="119" t="s">
+      <c r="O86" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="P86" s="119" t="s">
+      <c r="P86" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="Q86" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="R86" s="120"/>
+      <c r="Q86" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="R86" s="118"/>
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L87" s="106"/>
-      <c r="M87" s="69">
+      <c r="L87" s="72"/>
+      <c r="M87" s="143">
         <v>63</v>
       </c>
       <c r="N87" s="51" t="s">
@@ -8297,8 +8375,8 @@
       <c r="R87" s="71"/>
     </row>
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L88" s="73"/>
-      <c r="M88" s="47">
+      <c r="L88" s="46"/>
+      <c r="M88" s="104">
         <v>82</v>
       </c>
       <c r="N88" s="32" t="s">
@@ -8316,8 +8394,8 @@
       <c r="R88" s="48"/>
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L89" s="73"/>
-      <c r="M89" s="47">
+      <c r="L89" s="46"/>
+      <c r="M89" s="104">
         <v>67</v>
       </c>
       <c r="N89" s="32" t="s">
@@ -8335,8 +8413,8 @@
       <c r="R89" s="48"/>
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L90" s="73"/>
-      <c r="M90" s="47">
+      <c r="L90" s="46"/>
+      <c r="M90" s="104">
         <v>73</v>
       </c>
       <c r="N90" s="32" t="s">
@@ -8354,8 +8432,8 @@
       <c r="R90" s="48"/>
     </row>
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L91" s="73"/>
-      <c r="M91" s="47">
+      <c r="L91" s="46"/>
+      <c r="M91" s="104">
         <v>80</v>
       </c>
       <c r="N91" s="32" t="s">
@@ -8373,8 +8451,8 @@
       <c r="R91" s="48"/>
     </row>
     <row r="92" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L92" s="73"/>
-      <c r="M92" s="47">
+      <c r="L92" s="46"/>
+      <c r="M92" s="104">
         <v>63</v>
       </c>
       <c r="N92" s="32" t="s">
@@ -8392,8 +8470,8 @@
       <c r="R92" s="48"/>
     </row>
     <row r="93" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L93" s="73"/>
-      <c r="M93" s="47">
+      <c r="L93" s="46"/>
+      <c r="M93" s="104">
         <v>64</v>
       </c>
       <c r="N93" s="32" t="s">
@@ -8411,9 +8489,9 @@
       <c r="R93" s="48"/>
     </row>
     <row r="94" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L94" s="73"/>
-      <c r="M94" s="47">
-        <v>65</v>
+      <c r="L94" s="46"/>
+      <c r="M94" s="101">
+        <v>83</v>
       </c>
       <c r="N94" s="32" t="s">
         <v>262</v>
@@ -8430,9 +8508,9 @@
       <c r="R94" s="48"/>
     </row>
     <row r="95" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L95" s="85"/>
-      <c r="M95" s="121">
-        <v>66</v>
+      <c r="L95" s="43"/>
+      <c r="M95" s="115">
+        <v>84</v>
       </c>
       <c r="N95" s="89" t="s">
         <v>262</v>

--- a/CRM/Mapeos_UBI_CRM_V2.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V2.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="268">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -904,9 +904,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>ID_PAI</t>
   </si>
   <si>
@@ -1361,6 +1358,12 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1688,6 +1691,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -2318,7 +2327,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2410,7 +2419,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2429,10 +2437,6 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2510,6 +2514,9 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2573,10 +2580,18 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3057,7 +3072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3067,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="I15" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:K25"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3128,13 +3143,13 @@
       <c r="E3" s="126"/>
       <c r="F3" s="127"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
@@ -3145,11 +3160,11 @@
       <c r="E4" s="129"/>
       <c r="F4" s="130"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="49"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
@@ -3162,6 +3177,11 @@
       <c r="E5" s="129"/>
       <c r="F5" s="130"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -3216,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -3226,22 +3246,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="57" t="s">
+      <c r="R8" s="56" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3260,36 +3280,36 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="73"/>
+        <v>163</v>
+      </c>
+      <c r="H9" s="70"/>
       <c r="I9" s="37">
         <v>54</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="50">
+      <c r="K9" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="49">
         <v>54</v>
       </c>
-      <c r="N9" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" s="51" t="s">
+      <c r="N9" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="52" t="s">
-        <v>164</v>
+      <c r="R9" s="51" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -3307,22 +3327,22 @@
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="73"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="47">
         <v>55</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="74"/>
+      <c r="K10" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="71"/>
       <c r="M10" s="23">
         <v>55</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>100</v>
@@ -3333,7 +3353,7 @@
       <c r="Q10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="53"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="23">
@@ -3350,7 +3370,7 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="73"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="47">
         <v>56</v>
       </c>
@@ -3360,12 +3380,12 @@
       <c r="K11" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="74"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="23">
         <v>56</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>20</v>
@@ -3376,7 +3396,7 @@
       <c r="Q11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="53"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="23">
@@ -3393,7 +3413,7 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="73"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="47">
         <v>57</v>
       </c>
@@ -3403,12 +3423,12 @@
       <c r="K12" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="23">
         <v>57</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>23</v>
@@ -3419,7 +3439,7 @@
       <c r="Q12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="53"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="23">
@@ -3436,22 +3456,22 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="73"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="47">
         <v>58</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="L13" s="75"/>
+      <c r="K13" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="72"/>
       <c r="M13" s="23">
         <v>58</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O13" s="35" t="s">
         <v>25</v>
@@ -3462,7 +3482,7 @@
       <c r="Q13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="53"/>
+      <c r="R13" s="52"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="23">
@@ -3479,7 +3499,7 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="73"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="47">
         <v>59</v>
       </c>
@@ -3489,12 +3509,12 @@
       <c r="K14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="75"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="23">
         <v>1</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>101</v>
@@ -3505,8 +3525,8 @@
       <c r="Q14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="53" t="s">
-        <v>164</v>
+      <c r="R14" s="52" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -3524,22 +3544,22 @@
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="73"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="47">
         <v>60</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" s="75"/>
+      <c r="K15" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="72"/>
       <c r="M15" s="23">
         <v>65</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>103</v>
@@ -3550,7 +3570,7 @@
       <c r="Q15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="53"/>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="23">
@@ -3567,7 +3587,7 @@
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="73"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="23">
         <v>61</v>
       </c>
@@ -3577,12 +3597,12 @@
       <c r="K16" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="75"/>
+      <c r="L16" s="72"/>
       <c r="M16" s="23">
         <v>60</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>104</v>
@@ -3593,7 +3613,7 @@
       <c r="Q16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="53"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="23">
@@ -3610,34 +3630,34 @@
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="73"/>
+      <c r="H17" s="70"/>
       <c r="I17" s="47">
         <v>62</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="23">
+        <v>169</v>
+      </c>
+      <c r="L17" s="72"/>
+      <c r="M17" s="142">
         <v>48</v>
       </c>
-      <c r="N17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="32" t="s">
+      <c r="N17" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="53" t="s">
-        <v>164</v>
+      <c r="R17" s="143" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -3655,33 +3675,33 @@
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="47">
         <v>63</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="65">
+        <v>135</v>
+      </c>
+      <c r="K18" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="72"/>
+      <c r="M18" s="62">
         <v>70</v>
       </c>
-      <c r="N18" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="62" t="s">
+      <c r="N18" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="62" t="s">
+      <c r="P18" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="63"/>
+      <c r="Q18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -3698,33 +3718,33 @@
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="73"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="47">
         <v>64</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="66">
+        <v>171</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="63">
         <v>3</v>
       </c>
-      <c r="N19" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" s="67" t="s">
+      <c r="N19" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="67" t="s">
+      <c r="P19" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="68"/>
+      <c r="Q19" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="65"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="23">
@@ -3741,7 +3761,7 @@
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="73"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="47">
         <v>65</v>
       </c>
@@ -3751,24 +3771,24 @@
       <c r="K20" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="83"/>
-      <c r="M20" s="69">
+      <c r="L20" s="80"/>
+      <c r="M20" s="66">
         <v>54</v>
       </c>
-      <c r="N20" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="O20" s="51" t="s">
+      <c r="N20" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="51" t="s">
+      <c r="P20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="51" t="s">
+      <c r="Q20" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="71" t="s">
-        <v>164</v>
+      <c r="R20" s="68" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -3786,25 +3806,25 @@
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="73"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="47">
         <v>66</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="L21" s="84"/>
+        <v>172</v>
+      </c>
+      <c r="L21" s="81"/>
       <c r="M21" s="47">
         <v>62</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>18</v>
@@ -3829,25 +3849,25 @@
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="73"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="47">
         <v>67</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" s="84"/>
+        <v>173</v>
+      </c>
+      <c r="L22" s="81"/>
       <c r="M22" s="47">
         <v>59</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>18</v>
@@ -3872,25 +3892,25 @@
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="73"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="47">
         <v>68</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="84"/>
+        <v>174</v>
+      </c>
+      <c r="L23" s="81"/>
       <c r="M23" s="47">
         <v>63</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>18</v>
@@ -3915,25 +3935,25 @@
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="73"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="47">
         <v>69</v>
       </c>
       <c r="J24" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="K24" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="L24" s="84"/>
+      <c r="L24" s="81"/>
       <c r="M24" s="47">
         <v>64</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>18</v>
@@ -3958,28 +3978,28 @@
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="73"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="44">
         <v>70</v>
       </c>
       <c r="J25" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="K25" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="L25" s="84"/>
+      <c r="L25" s="81"/>
       <c r="M25" s="47">
         <v>65</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O25" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="Q25" s="32" t="s">
         <v>19</v>
@@ -4002,18 +4022,18 @@
       <c r="F26" s="36"/>
       <c r="G26" s="39"/>
       <c r="H26" s="46"/>
-      <c r="L26" s="73"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="47">
         <v>65</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O26" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="Q26" s="32" t="s">
         <v>19</v>
@@ -4036,18 +4056,18 @@
       <c r="F27" s="36"/>
       <c r="G27" s="39"/>
       <c r="H27" s="46"/>
-      <c r="L27" s="73"/>
+      <c r="L27" s="70"/>
       <c r="M27" s="47">
         <v>6</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O27" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="Q27" s="32" t="s">
         <v>19</v>
@@ -4070,18 +4090,18 @@
       <c r="F28" s="36"/>
       <c r="G28" s="39"/>
       <c r="H28" s="46"/>
-      <c r="L28" s="73"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="47">
         <v>65</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O28" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="Q28" s="32" t="s">
         <v>19</v>
@@ -4104,18 +4124,18 @@
       <c r="F29" s="36"/>
       <c r="G29" s="39"/>
       <c r="H29" s="46"/>
-      <c r="L29" s="73"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="47">
         <v>65</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O29" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="Q29" s="32" t="s">
         <v>19</v>
@@ -4138,15 +4158,15 @@
       <c r="F30" s="36"/>
       <c r="G30" s="39"/>
       <c r="H30" s="46"/>
-      <c r="L30" s="73"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="47">
         <v>65</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>102</v>
@@ -4172,18 +4192,18 @@
       <c r="F31" s="36"/>
       <c r="G31" s="39"/>
       <c r="H31" s="46"/>
-      <c r="L31" s="73"/>
+      <c r="L31" s="70"/>
       <c r="M31" s="47">
         <v>65</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="32" t="s">
         <v>19</v>
@@ -4206,18 +4226,18 @@
       <c r="F32" s="36"/>
       <c r="G32" s="39"/>
       <c r="H32" s="46"/>
-      <c r="L32" s="73"/>
+      <c r="L32" s="70"/>
       <c r="M32" s="47">
         <v>65</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="32" t="s">
         <v>19</v>
@@ -4240,18 +4260,18 @@
       <c r="F33" s="36"/>
       <c r="G33" s="39"/>
       <c r="H33" s="46"/>
-      <c r="L33" s="73"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="47">
         <v>65</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q33" s="32" t="s">
         <v>19</v>
@@ -4274,23 +4294,23 @@
       <c r="F34" s="36"/>
       <c r="G34" s="39"/>
       <c r="H34" s="46"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="80">
+      <c r="L34" s="82"/>
+      <c r="M34" s="77">
         <v>66</v>
       </c>
-      <c r="N34" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="O34" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="P34" s="67" t="s">
+      <c r="N34" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="Q34" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="82"/>
+      <c r="Q34" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="79"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="23">
@@ -4308,24 +4328,24 @@
       <c r="F35" s="36"/>
       <c r="G35" s="39"/>
       <c r="H35" s="46"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="69">
+      <c r="L35" s="69"/>
+      <c r="M35" s="66">
         <v>54</v>
       </c>
-      <c r="N35" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="O35" s="51" t="s">
+      <c r="N35" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="O35" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="51" t="s">
+      <c r="P35" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q35" s="51" t="s">
+      <c r="Q35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="71" t="s">
-        <v>164</v>
+      <c r="R35" s="68" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
@@ -4349,13 +4369,13 @@
         <v>65</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O36" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="P36" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="Q36" s="32" t="s">
         <v>19</v>
@@ -4383,13 +4403,13 @@
         <v>65</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P37" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q37" s="32" t="s">
         <v>22</v>
@@ -4417,13 +4437,13 @@
         <v>65</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P38" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q38" s="32" t="s">
         <v>22</v>
@@ -4451,13 +4471,13 @@
         <v>67</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P39" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="32" t="s">
         <v>22</v>
@@ -4481,22 +4501,22 @@
       <c r="G40" s="39"/>
       <c r="H40" s="46"/>
       <c r="L40" s="43"/>
-      <c r="M40" s="80">
+      <c r="M40" s="77">
         <v>68</v>
       </c>
-      <c r="N40" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="O40" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="P40" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q40" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="82"/>
+      <c r="N40" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="P40" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q40" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="79"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="23">
@@ -4514,24 +4534,24 @@
       <c r="F41" s="36"/>
       <c r="G41" s="39"/>
       <c r="H41" s="46"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="69">
+      <c r="L41" s="69"/>
+      <c r="M41" s="66">
         <v>54</v>
       </c>
-      <c r="N41" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="O41" s="51" t="s">
+      <c r="N41" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="O41" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q41" s="51" t="s">
+      <c r="Q41" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="71" t="s">
-        <v>164</v>
+      <c r="R41" s="68" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4551,22 +4571,22 @@
       <c r="G42" s="39"/>
       <c r="H42" s="46"/>
       <c r="L42" s="43"/>
-      <c r="M42" s="92">
+      <c r="M42" s="89">
         <v>39</v>
       </c>
-      <c r="N42" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="O42" s="54" t="s">
+      <c r="N42" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="P42" s="54" t="s">
+      <c r="O42" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="Q42" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="R42" s="55"/>
+      <c r="Q42" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="R42" s="54"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="23">
@@ -4912,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4951,7 +4971,7 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="123"/>
       <c r="F2" s="124"/>
@@ -4971,13 +4991,13 @@
       <c r="E3" s="126"/>
       <c r="F3" s="127"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
@@ -4988,11 +5008,11 @@
       <c r="E4" s="129"/>
       <c r="F4" s="130"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="49"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
@@ -5005,6 +5025,11 @@
       <c r="E5" s="129"/>
       <c r="F5" s="130"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -5059,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="61" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -5084,7 +5109,7 @@
       <c r="Q8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="91" t="s">
+      <c r="R8" s="88" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5103,34 +5128,34 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="73"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="37">
         <v>16</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="50">
+        <v>160</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="144">
         <v>13</v>
       </c>
-      <c r="N9" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P9" s="51" t="s">
+      <c r="N9" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="52" t="s">
-        <v>164</v>
+      <c r="R9" s="146" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -5148,25 +5173,25 @@
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="73"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="47">
         <v>17</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="87">
+        <v>161</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="84">
         <v>16</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>18</v>
@@ -5174,7 +5199,7 @@
       <c r="Q10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="53"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="23">
@@ -5191,25 +5216,25 @@
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="73"/>
+      <c r="H11" s="70"/>
       <c r="I11" s="47">
         <v>18</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="87">
+        <v>179</v>
+      </c>
+      <c r="L11" s="91"/>
+      <c r="M11" s="84">
         <v>23</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>26</v>
@@ -5217,7 +5242,7 @@
       <c r="Q11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="53"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="23">
@@ -5234,9 +5259,9 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="73"/>
+        <v>163</v>
+      </c>
+      <c r="H12" s="70"/>
       <c r="I12" s="47">
         <v>19</v>
       </c>
@@ -5246,12 +5271,12 @@
       <c r="K12" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="87">
+      <c r="L12" s="91"/>
+      <c r="M12" s="84">
         <v>17</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>99</v>
@@ -5262,8 +5287,8 @@
       <c r="Q12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="53" t="s">
-        <v>164</v>
+      <c r="R12" s="52" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -5271,7 +5296,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>32</v>
@@ -5281,7 +5306,7 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="73"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="47">
         <v>20</v>
       </c>
@@ -5291,12 +5316,12 @@
       <c r="K13" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="87">
+      <c r="L13" s="81"/>
+      <c r="M13" s="84">
         <v>18</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>17</v>
@@ -5307,8 +5332,8 @@
       <c r="Q13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="53" t="s">
-        <v>164</v>
+      <c r="R13" s="52" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -5316,7 +5341,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>21</v>
@@ -5326,7 +5351,7 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="73"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="47">
         <v>21</v>
       </c>
@@ -5334,14 +5359,14 @@
         <v>110</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="93">
+        <v>180</v>
+      </c>
+      <c r="L14" s="81"/>
+      <c r="M14" s="90">
         <v>19</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>20</v>
@@ -5352,14 +5377,14 @@
       <c r="Q14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="53"/>
+      <c r="R14" s="52"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="23">
         <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>31</v>
@@ -5369,7 +5394,7 @@
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="73"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="47">
         <v>22</v>
       </c>
@@ -5379,12 +5404,12 @@
       <c r="K15" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="93">
+      <c r="L15" s="81"/>
+      <c r="M15" s="90">
         <v>20</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>23</v>
@@ -5395,14 +5420,14 @@
       <c r="Q15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="53"/>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="23">
         <v>8</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>32</v>
@@ -5412,22 +5437,22 @@
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="73"/>
+      <c r="H16" s="70"/>
       <c r="I16" s="47">
         <v>23</v>
       </c>
       <c r="J16" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="84"/>
+      <c r="L16" s="81"/>
       <c r="M16" s="23">
         <v>21</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>25</v>
@@ -5438,7 +5463,7 @@
       <c r="Q16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="53"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -5455,42 +5480,42 @@
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="73"/>
+        <v>163</v>
+      </c>
+      <c r="H17" s="70"/>
       <c r="I17" s="47">
         <v>24</v>
       </c>
       <c r="J17" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="K17" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="141"/>
-      <c r="M17" s="88">
+      <c r="L17" s="117"/>
+      <c r="M17" s="85">
         <v>25</v>
       </c>
-      <c r="N17" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" s="89" t="s">
+      <c r="N17" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="89" t="s">
+      <c r="P17" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="90"/>
+      <c r="Q17" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="87"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
         <v>10</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>31</v>
@@ -5500,15 +5525,15 @@
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="44">
         <v>25</v>
       </c>
       <c r="J18" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" s="116" t="s">
         <v>265</v>
-      </c>
-      <c r="K18" s="140" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -5516,7 +5541,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>21</v>
@@ -5593,7 +5618,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="41"/>
-      <c r="G23" s="86"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="43"/>
     </row>
   </sheetData>
@@ -5617,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87:L95"/>
+    <sheetView tabSelected="1" topLeftCell="L76" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87:R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5656,7 +5681,7 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="123"/>
       <c r="F2" s="124"/>
@@ -5676,13 +5701,13 @@
       <c r="E3" s="126"/>
       <c r="F3" s="127"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
@@ -5693,11 +5718,11 @@
       <c r="E4" s="129"/>
       <c r="F4" s="130"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="49"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
@@ -5710,6 +5735,11 @@
       <c r="E5" s="129"/>
       <c r="F5" s="130"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -5764,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="109" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="18" t="s">
@@ -5789,7 +5819,7 @@
       <c r="Q8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="91" t="s">
+      <c r="R8" s="88" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5798,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>31</v>
@@ -5807,41 +5837,41 @@
         <v>4</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="108"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="113">
+      <c r="I9" s="110">
         <v>61</v>
       </c>
-      <c r="J9" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="100">
+      <c r="J9" s="104" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="97">
         <v>61</v>
       </c>
-      <c r="N9" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="O9" s="98" t="s">
+      <c r="N9" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="O9" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="98" t="s">
+      <c r="Q9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="52"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
         <v>2</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>31</v>
@@ -5850,41 +5880,41 @@
         <v>3</v>
       </c>
       <c r="F10" s="36"/>
-      <c r="G10" s="109"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="46"/>
-      <c r="I10" s="104">
+      <c r="I10" s="101">
         <v>62</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="101">
+        <v>226</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="71"/>
+      <c r="M10" s="98">
         <v>62</v>
       </c>
-      <c r="N10" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O10" s="97" t="s">
+      <c r="N10" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O10" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="97" t="s">
+      <c r="P10" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="97" t="s">
+      <c r="Q10" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="53"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="23">
         <v>3</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>32</v>
@@ -5893,9 +5923,9 @@
         <v>22</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="109"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="104">
+      <c r="I11" s="101">
         <v>63</v>
       </c>
       <c r="J11" s="31" t="s">
@@ -5904,30 +5934,30 @@
       <c r="K11" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="101">
+      <c r="L11" s="71"/>
+      <c r="M11" s="98">
         <v>63</v>
       </c>
-      <c r="N11" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O11" s="97" t="s">
+      <c r="N11" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O11" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="97" t="s">
+      <c r="P11" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="53"/>
+      <c r="Q11" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="23">
         <v>4</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>31</v>
@@ -5936,9 +5966,9 @@
         <v>30</v>
       </c>
       <c r="F12" s="36"/>
-      <c r="G12" s="109"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="104">
+      <c r="I12" s="101">
         <v>64</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -5947,30 +5977,30 @@
       <c r="K12" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="101">
+      <c r="L12" s="71"/>
+      <c r="M12" s="98">
         <v>64</v>
       </c>
-      <c r="N12" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O12" s="97" t="s">
+      <c r="N12" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O12" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="97" t="s">
+      <c r="P12" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="53"/>
+      <c r="Q12" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="23">
         <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>31</v>
@@ -5979,41 +6009,41 @@
         <v>30</v>
       </c>
       <c r="F13" s="36"/>
-      <c r="G13" s="109"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="46"/>
-      <c r="I13" s="104">
+      <c r="I13" s="101">
         <v>65</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>110</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="101">
+        <v>239</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="98">
         <v>65</v>
       </c>
-      <c r="N13" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O13" s="97" t="s">
+      <c r="N13" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O13" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="97" t="s">
+      <c r="P13" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="53"/>
+      <c r="Q13" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="52"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="23">
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>31</v>
@@ -6022,41 +6052,41 @@
         <v>30</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="46"/>
-      <c r="I14" s="104">
+      <c r="I14" s="101">
         <v>66</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="102">
+      <c r="L14" s="72"/>
+      <c r="M14" s="99">
         <v>68</v>
       </c>
-      <c r="N14" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O14" s="97" t="s">
+      <c r="N14" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O14" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="97" t="s">
+      <c r="P14" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="53"/>
+      <c r="Q14" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="52"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="23">
         <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>31</v>
@@ -6065,84 +6095,84 @@
         <v>5</v>
       </c>
       <c r="F15" s="36"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="104">
+      <c r="I15" s="101">
         <v>67</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="102">
+        <v>176</v>
+      </c>
+      <c r="L15" s="72"/>
+      <c r="M15" s="99">
         <v>69</v>
       </c>
-      <c r="N15" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O15" s="97" t="s">
+      <c r="N15" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O15" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="97" t="s">
+      <c r="P15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="53"/>
+      <c r="Q15" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="23">
         <v>8</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>191</v>
       </c>
       <c r="E16" s="36">
         <v>4000</v>
       </c>
       <c r="F16" s="36"/>
-      <c r="G16" s="110"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="104">
+      <c r="I16" s="101">
         <v>68</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="103">
+        <v>240</v>
+      </c>
+      <c r="L16" s="72"/>
+      <c r="M16" s="100">
         <v>39</v>
       </c>
-      <c r="N16" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O16" s="97" t="s">
+      <c r="N16" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="O16" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="97" t="s">
+      <c r="P16" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="53"/>
+      <c r="Q16" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="23">
         <v>9</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>31</v>
@@ -6151,9 +6181,9 @@
         <v>5</v>
       </c>
       <c r="F17" s="36"/>
-      <c r="G17" s="110"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="104">
+      <c r="I17" s="101">
         <v>69</v>
       </c>
       <c r="J17" s="31" t="s">
@@ -6162,30 +6192,30 @@
       <c r="K17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="75"/>
-      <c r="M17" s="101">
+      <c r="L17" s="72"/>
+      <c r="M17" s="147">
         <v>83</v>
       </c>
-      <c r="N17" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="O17" s="97" t="s">
+      <c r="N17" s="148" t="s">
+        <v>254</v>
+      </c>
+      <c r="O17" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="97" t="s">
+      <c r="P17" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="53"/>
+      <c r="Q17" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="143"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="23">
         <v>10</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>31</v>
@@ -6194,41 +6224,41 @@
         <v>10</v>
       </c>
       <c r="F18" s="36"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="104">
+      <c r="I18" s="101">
         <v>70</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="115">
+        <v>241</v>
+      </c>
+      <c r="L18" s="72"/>
+      <c r="M18" s="112">
         <v>84</v>
       </c>
-      <c r="N18" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="O18" s="116" t="s">
+      <c r="N18" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="O18" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="116" t="s">
+      <c r="P18" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="63"/>
+      <c r="Q18" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
         <v>11</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>21</v>
@@ -6237,41 +6267,41 @@
         <v>7</v>
       </c>
       <c r="F19" s="36"/>
-      <c r="G19" s="110"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="104">
+      <c r="I19" s="101">
         <v>71</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="105">
-        <v>22</v>
-      </c>
-      <c r="N19" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="O19" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="102">
+        <v>22</v>
+      </c>
+      <c r="N19" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="O19" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="99" t="s">
+      <c r="P19" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="82"/>
+      <c r="Q19" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="79"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="23">
         <v>12</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>31</v>
@@ -6280,34 +6310,34 @@
         <v>1</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="110"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="46"/>
-      <c r="I20" s="104">
+      <c r="I20" s="101">
         <v>72</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="50">
+        <v>243</v>
+      </c>
+      <c r="L20" s="72"/>
+      <c r="M20" s="49">
         <v>73</v>
       </c>
-      <c r="N20" s="98" t="s">
-        <v>256</v>
-      </c>
-      <c r="O20" s="98" t="s">
+      <c r="N20" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="O20" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="98" t="s">
+      <c r="P20" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="98" t="s">
+      <c r="Q20" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="52"/>
+      <c r="R20" s="51"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="23">
@@ -6323,41 +6353,41 @@
         <v>30</v>
       </c>
       <c r="F21" s="36"/>
-      <c r="G21" s="110"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="46"/>
-      <c r="I21" s="104">
+      <c r="I21" s="101">
         <v>73</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="87">
+        <v>244</v>
+      </c>
+      <c r="L21" s="72"/>
+      <c r="M21" s="84">
         <v>74</v>
       </c>
-      <c r="N21" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O21" s="97" t="s">
+      <c r="N21" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O21" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="97" t="s">
+      <c r="P21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="97" t="s">
+      <c r="Q21" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="53"/>
+      <c r="R21" s="52"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="23">
         <v>14</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>31</v>
@@ -6366,34 +6396,34 @@
         <v>30</v>
       </c>
       <c r="F22" s="36"/>
-      <c r="G22" s="110"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="46"/>
-      <c r="I22" s="104">
+      <c r="I22" s="101">
         <v>74</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="L22" s="75"/>
-      <c r="M22" s="87">
+        <v>245</v>
+      </c>
+      <c r="L22" s="72"/>
+      <c r="M22" s="84">
         <v>63</v>
       </c>
-      <c r="N22" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O22" s="97" t="s">
+      <c r="N22" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O22" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="97" t="s">
+      <c r="P22" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="53"/>
+      <c r="Q22" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="52"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="23">
@@ -6409,41 +6439,41 @@
         <v>10</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="110"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="104">
+      <c r="I23" s="101">
         <v>75</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="L23" s="75"/>
-      <c r="M23" s="87">
+        <v>246</v>
+      </c>
+      <c r="L23" s="72"/>
+      <c r="M23" s="84">
         <v>64</v>
       </c>
-      <c r="N23" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O23" s="97" t="s">
+      <c r="N23" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O23" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="97" t="s">
+      <c r="P23" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="53"/>
+      <c r="Q23" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="52"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="23">
         <v>16</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>31</v>
@@ -6451,42 +6481,42 @@
       <c r="E24" s="36">
         <v>10</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="111"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="104">
+      <c r="I24" s="101">
         <v>76</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="87">
+        <v>247</v>
+      </c>
+      <c r="L24" s="72"/>
+      <c r="M24" s="84">
         <v>65</v>
       </c>
-      <c r="N24" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O24" s="97" t="s">
+      <c r="N24" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="97" t="s">
+      <c r="P24" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="53"/>
+      <c r="Q24" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="52"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="23">
         <v>17</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>31</v>
@@ -6494,42 +6524,42 @@
       <c r="E25" s="36">
         <v>10</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="111"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="104">
+      <c r="I25" s="101">
         <v>77</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="L25" s="75"/>
-      <c r="M25" s="93">
+        <v>248</v>
+      </c>
+      <c r="L25" s="72"/>
+      <c r="M25" s="90">
         <v>78</v>
       </c>
-      <c r="N25" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O25" s="97" t="s">
+      <c r="N25" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O25" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="97" t="s">
+      <c r="P25" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="53"/>
+      <c r="Q25" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="52"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="23">
         <v>18</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>31</v>
@@ -6537,42 +6567,42 @@
       <c r="E26" s="36">
         <v>10</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="111"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="108"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="104">
+      <c r="I26" s="101">
         <v>78</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="93">
+        <v>249</v>
+      </c>
+      <c r="L26" s="72"/>
+      <c r="M26" s="90">
         <v>69</v>
       </c>
-      <c r="N26" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" s="97" t="s">
+      <c r="N26" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O26" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="97" t="s">
+      <c r="P26" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="53"/>
+      <c r="Q26" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="52"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="23">
         <v>19</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>31</v>
@@ -6580,42 +6610,42 @@
       <c r="E27" s="36">
         <v>5</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="111"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="108"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="104">
+      <c r="I27" s="101">
         <v>79</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="L27" s="75"/>
+        <v>250</v>
+      </c>
+      <c r="L27" s="72"/>
       <c r="M27" s="23">
         <v>41</v>
       </c>
-      <c r="N27" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O27" s="97" t="s">
+      <c r="N27" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="O27" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="97" t="s">
+      <c r="P27" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="Q27" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="53"/>
+      <c r="Q27" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="52"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="23">
         <v>20</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>31</v>
@@ -6623,35 +6653,35 @@
       <c r="E28" s="36">
         <v>30</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="111"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="108"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="104">
+      <c r="I28" s="101">
         <v>80</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="101">
+        <v>251</v>
+      </c>
+      <c r="L28" s="72"/>
+      <c r="M28" s="147">
         <v>83</v>
       </c>
-      <c r="N28" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="O28" s="97" t="s">
+      <c r="N28" s="148" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="97" t="s">
+      <c r="P28" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="53"/>
+      <c r="Q28" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="143"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="23">
@@ -6666,35 +6696,35 @@
       <c r="E29" s="36">
         <v>3</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="111"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="108"/>
       <c r="H29" s="46"/>
-      <c r="I29" s="104">
+      <c r="I29" s="101">
         <v>81</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="115">
+        <v>252</v>
+      </c>
+      <c r="L29" s="72"/>
+      <c r="M29" s="112">
         <v>84</v>
       </c>
-      <c r="N29" s="116" t="s">
-        <v>256</v>
-      </c>
-      <c r="O29" s="116" t="s">
+      <c r="N29" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="116" t="s">
+      <c r="P29" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="63"/>
+      <c r="Q29" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="60"/>
     </row>
     <row r="30" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23">
@@ -6709,35 +6739,35 @@
       <c r="E30" s="36">
         <v>254</v>
       </c>
-      <c r="F30" s="95"/>
-      <c r="G30" s="111"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="108"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="104">
+      <c r="I30" s="101">
         <v>82</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" s="76"/>
-      <c r="M30" s="80">
-        <v>22</v>
-      </c>
-      <c r="N30" s="99" t="s">
-        <v>256</v>
-      </c>
-      <c r="O30" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" s="73"/>
+      <c r="M30" s="77">
+        <v>22</v>
+      </c>
+      <c r="N30" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="99" t="s">
+      <c r="P30" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="Q30" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="82"/>
+      <c r="Q30" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="79"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="23">
@@ -6752,35 +6782,35 @@
       <c r="E31" s="36">
         <v>254</v>
       </c>
-      <c r="F31" s="95"/>
-      <c r="G31" s="111"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="108"/>
       <c r="H31" s="46"/>
-      <c r="I31" s="104">
+      <c r="I31" s="101">
         <v>83</v>
       </c>
       <c r="J31" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="50">
+      <c r="L31" s="118"/>
+      <c r="M31" s="49">
         <v>76</v>
       </c>
-      <c r="N31" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="O31" s="98" t="s">
+      <c r="N31" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="P31" s="98" t="s">
+      <c r="P31" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="Q31" s="98" t="s">
+      <c r="Q31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="52"/>
+      <c r="R31" s="51"/>
     </row>
     <row r="32" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23">
@@ -6795,35 +6825,35 @@
       <c r="E32" s="36">
         <v>254</v>
       </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="111"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="108"/>
       <c r="H32" s="43"/>
-      <c r="I32" s="114">
+      <c r="I32" s="111">
         <v>84</v>
       </c>
       <c r="J32" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="K32" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="87">
+      <c r="L32" s="72"/>
+      <c r="M32" s="84">
         <v>77</v>
       </c>
-      <c r="N32" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O32" s="97" t="s">
+      <c r="N32" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="P32" s="97" t="s">
+      <c r="P32" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q32" s="97" t="s">
+      <c r="Q32" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R32" s="53"/>
+      <c r="R32" s="52"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="23">
@@ -6838,25 +6868,25 @@
       <c r="E33" s="36">
         <v>254</v>
       </c>
-      <c r="F33" s="95"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="39"/>
       <c r="L33" s="46"/>
       <c r="M33" s="47">
         <v>63</v>
       </c>
-      <c r="N33" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O33" s="97" t="s">
+      <c r="N33" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="97" t="s">
+      <c r="P33" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Q33" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" s="53"/>
+      <c r="Q33" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="52"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="23">
@@ -6871,25 +6901,25 @@
       <c r="E34" s="36">
         <v>30</v>
       </c>
-      <c r="F34" s="95"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="39"/>
       <c r="L34" s="46"/>
       <c r="M34" s="47">
         <v>64</v>
       </c>
-      <c r="N34" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O34" s="97" t="s">
+      <c r="N34" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="97" t="s">
+      <c r="P34" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="53"/>
+      <c r="Q34" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="52"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="23">
@@ -6904,25 +6934,25 @@
       <c r="E35" s="36">
         <v>6</v>
       </c>
-      <c r="F35" s="95"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="39"/>
       <c r="L35" s="46"/>
-      <c r="M35" s="87">
+      <c r="M35" s="84">
         <v>65</v>
       </c>
-      <c r="N35" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O35" s="97" t="s">
+      <c r="N35" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="97" t="s">
+      <c r="P35" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="53"/>
+      <c r="Q35" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="23">
@@ -6937,25 +6967,25 @@
       <c r="E36" s="36">
         <v>4</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="39"/>
       <c r="L36" s="46"/>
-      <c r="M36" s="93">
+      <c r="M36" s="90">
         <v>79</v>
       </c>
-      <c r="N36" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O36" s="97" t="s">
+      <c r="N36" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="P36" s="97" t="s">
+      <c r="P36" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="Q36" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" s="53"/>
+      <c r="Q36" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="23">
@@ -6970,25 +7000,25 @@
       <c r="E37" s="36">
         <v>2</v>
       </c>
-      <c r="F37" s="95"/>
+      <c r="F37" s="92"/>
       <c r="G37" s="39"/>
       <c r="L37" s="46"/>
-      <c r="M37" s="93">
+      <c r="M37" s="90">
         <v>69</v>
       </c>
-      <c r="N37" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O37" s="97" t="s">
+      <c r="N37" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="97" t="s">
+      <c r="P37" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q37" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" s="53"/>
+      <c r="Q37" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="52"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="23">
@@ -7003,25 +7033,25 @@
       <c r="E38" s="36">
         <v>2</v>
       </c>
-      <c r="F38" s="95"/>
+      <c r="F38" s="92"/>
       <c r="G38" s="39"/>
       <c r="L38" s="46"/>
       <c r="M38" s="23">
         <v>22</v>
       </c>
-      <c r="N38" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O38" s="97" t="s">
+      <c r="N38" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="P38" s="97" t="s">
+      <c r="P38" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="Q38" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R38" s="53"/>
+      <c r="Q38" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="52"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="23">
@@ -7036,25 +7066,25 @@
       <c r="E39" s="36">
         <v>4</v>
       </c>
-      <c r="F39" s="95"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="39"/>
       <c r="L39" s="46"/>
-      <c r="M39" s="101">
+      <c r="M39" s="147">
         <v>83</v>
       </c>
-      <c r="N39" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="O39" s="97" t="s">
+      <c r="N39" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="P39" s="97" t="s">
+      <c r="P39" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="Q39" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="53"/>
+      <c r="Q39" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="143"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="23">
@@ -7069,25 +7099,25 @@
       <c r="E40" s="36">
         <v>4</v>
       </c>
-      <c r="F40" s="95"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="39"/>
       <c r="L40" s="46"/>
-      <c r="M40" s="115">
+      <c r="M40" s="112">
         <v>84</v>
       </c>
-      <c r="N40" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="O40" s="116" t="s">
+      <c r="N40" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="P40" s="116" t="s">
+      <c r="P40" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="63"/>
+      <c r="Q40" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="60"/>
     </row>
     <row r="41" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -7102,25 +7132,25 @@
       <c r="E41" s="36">
         <v>30</v>
       </c>
-      <c r="F41" s="95"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="39"/>
       <c r="L41" s="43"/>
-      <c r="M41" s="80">
-        <v>22</v>
-      </c>
-      <c r="N41" s="99" t="s">
-        <v>257</v>
-      </c>
-      <c r="O41" s="99" t="s">
+      <c r="M41" s="77">
+        <v>22</v>
+      </c>
+      <c r="N41" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="P41" s="99" t="s">
+      <c r="P41" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="Q41" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="R41" s="82"/>
+      <c r="Q41" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" s="79"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="23">
@@ -7135,25 +7165,25 @@
       <c r="E42" s="36">
         <v>6</v>
       </c>
-      <c r="F42" s="95"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="39"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="69">
+      <c r="L42" s="69"/>
+      <c r="M42" s="66">
         <v>61</v>
       </c>
-      <c r="N42" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="O42" s="51" t="s">
+      <c r="N42" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="O42" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P42" s="51" t="s">
+      <c r="P42" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q42" s="51" t="s">
+      <c r="Q42" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="71"/>
+      <c r="R42" s="68"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="23">
@@ -7168,17 +7198,17 @@
       <c r="E43" s="36">
         <v>12</v>
       </c>
-      <c r="F43" s="95"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="39"/>
       <c r="L43" s="46"/>
       <c r="M43" s="47">
         <v>70</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P43" s="32" t="s">
         <v>18</v>
@@ -7201,17 +7231,17 @@
       <c r="E44" s="36">
         <v>11</v>
       </c>
-      <c r="F44" s="95"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="39"/>
       <c r="L44" s="46"/>
       <c r="M44" s="47">
         <v>69</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P44" s="32" t="s">
         <v>18</v>
@@ -7234,17 +7264,17 @@
       <c r="E45" s="36">
         <v>1</v>
       </c>
-      <c r="F45" s="95"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="39"/>
       <c r="L45" s="46"/>
       <c r="M45" s="47">
         <v>71</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P45" s="32" t="s">
         <v>18</v>
@@ -7267,17 +7297,17 @@
       <c r="E46" s="36">
         <v>3</v>
       </c>
-      <c r="F46" s="95"/>
+      <c r="F46" s="92"/>
       <c r="G46" s="39"/>
       <c r="L46" s="46"/>
       <c r="M46" s="47">
         <v>72</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P46" s="32" t="s">
         <v>18</v>
@@ -7300,20 +7330,20 @@
       <c r="E47" s="36">
         <v>24</v>
       </c>
-      <c r="F47" s="95"/>
+      <c r="F47" s="92"/>
       <c r="G47" s="39"/>
       <c r="L47" s="46"/>
       <c r="M47" s="47">
         <v>66</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="P47" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="Q47" s="32" t="s">
         <v>19</v>
@@ -7333,20 +7363,20 @@
       <c r="E48" s="36">
         <v>6</v>
       </c>
-      <c r="F48" s="95"/>
+      <c r="F48" s="92"/>
       <c r="G48" s="39"/>
       <c r="L48" s="46"/>
       <c r="M48" s="47">
         <v>66</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="P48" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="Q48" s="32" t="s">
         <v>19</v>
@@ -7358,7 +7388,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>31</v>
@@ -7366,17 +7396,17 @@
       <c r="E49" s="36">
         <v>24</v>
       </c>
-      <c r="F49" s="95"/>
+      <c r="F49" s="92"/>
       <c r="G49" s="39"/>
       <c r="L49" s="46"/>
       <c r="M49" s="47">
         <v>22</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P49" s="35" t="s">
         <v>107</v>
@@ -7391,7 +7421,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>31</v>
@@ -7399,20 +7429,20 @@
       <c r="E50" s="36">
         <v>5</v>
       </c>
-      <c r="F50" s="95"/>
+      <c r="F50" s="92"/>
       <c r="G50" s="39"/>
       <c r="L50" s="46"/>
       <c r="M50" s="47">
         <v>66</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="P50" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="Q50" s="32" t="s">
         <v>19</v>
@@ -7424,7 +7454,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>31</v>
@@ -7432,20 +7462,20 @@
       <c r="E51" s="36">
         <v>4</v>
       </c>
-      <c r="F51" s="95"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="39"/>
       <c r="L51" s="46"/>
       <c r="M51" s="47">
         <v>66</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O51" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="P51" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="Q51" s="32" t="s">
         <v>19</v>
@@ -7457,7 +7487,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>31</v>
@@ -7465,17 +7495,17 @@
       <c r="E52" s="36">
         <v>3</v>
       </c>
-      <c r="F52" s="95"/>
+      <c r="F52" s="92"/>
       <c r="G52" s="39"/>
       <c r="L52" s="46"/>
       <c r="M52" s="47">
         <v>66</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P52" s="32" t="s">
         <v>102</v>
@@ -7490,7 +7520,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>31</v>
@@ -7498,20 +7528,20 @@
       <c r="E53" s="36">
         <v>6</v>
       </c>
-      <c r="F53" s="95"/>
+      <c r="F53" s="92"/>
       <c r="G53" s="39"/>
       <c r="L53" s="46"/>
       <c r="M53" s="47">
         <v>66</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P53" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q53" s="32" t="s">
         <v>19</v>
@@ -7523,7 +7553,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>31</v>
@@ -7531,20 +7561,20 @@
       <c r="E54" s="36">
         <v>12</v>
       </c>
-      <c r="F54" s="95"/>
+      <c r="F54" s="92"/>
       <c r="G54" s="39"/>
       <c r="L54" s="46"/>
       <c r="M54" s="47">
         <v>66</v>
       </c>
       <c r="N54" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P54" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="32" t="s">
         <v>19</v>
@@ -7556,7 +7586,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>31</v>
@@ -7564,20 +7594,20 @@
       <c r="E55" s="36">
         <v>10</v>
       </c>
-      <c r="F55" s="95"/>
+      <c r="F55" s="92"/>
       <c r="G55" s="39"/>
       <c r="L55" s="46"/>
       <c r="M55" s="47">
         <v>66</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P55" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q55" s="32" t="s">
         <v>19</v>
@@ -7589,7 +7619,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>31</v>
@@ -7597,32 +7627,32 @@
       <c r="E56" s="36">
         <v>2</v>
       </c>
-      <c r="F56" s="95"/>
+      <c r="F56" s="92"/>
       <c r="G56" s="39"/>
       <c r="L56" s="43"/>
-      <c r="M56" s="80">
+      <c r="M56" s="77">
         <v>69</v>
       </c>
-      <c r="N56" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="O56" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="P56" s="67" t="s">
+      <c r="N56" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="O56" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P56" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="Q56" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R56" s="82"/>
+      <c r="Q56" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R56" s="79"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="23">
         <v>49</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>31</v>
@@ -7630,32 +7660,32 @@
       <c r="E57" s="36">
         <v>2</v>
       </c>
-      <c r="F57" s="95"/>
+      <c r="F57" s="92"/>
       <c r="G57" s="39"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="69">
+      <c r="L57" s="103"/>
+      <c r="M57" s="66">
         <v>61</v>
       </c>
-      <c r="N57" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="O57" s="51" t="s">
+      <c r="N57" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="O57" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P57" s="51" t="s">
+      <c r="P57" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q57" s="51" t="s">
+      <c r="Q57" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R57" s="71"/>
+      <c r="R57" s="68"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="23">
         <v>50</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="36" t="s">
         <v>31</v>
@@ -7663,20 +7693,20 @@
       <c r="E58" s="36">
         <v>10</v>
       </c>
-      <c r="F58" s="95"/>
+      <c r="F58" s="92"/>
       <c r="G58" s="39"/>
-      <c r="L58" s="73"/>
+      <c r="L58" s="70"/>
       <c r="M58" s="47">
         <v>66</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O58" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="P58" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="P58" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="Q58" s="32" t="s">
         <v>19</v>
@@ -7688,7 +7718,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>31</v>
@@ -7696,20 +7726,20 @@
       <c r="E59" s="36">
         <v>1</v>
       </c>
-      <c r="F59" s="95"/>
+      <c r="F59" s="92"/>
       <c r="G59" s="39"/>
-      <c r="L59" s="73"/>
+      <c r="L59" s="70"/>
       <c r="M59" s="47">
         <v>66</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P59" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q59" s="32" t="s">
         <v>22</v>
@@ -7721,7 +7751,7 @@
         <v>52</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>31</v>
@@ -7729,20 +7759,20 @@
       <c r="E60" s="36">
         <v>1</v>
       </c>
-      <c r="F60" s="95"/>
+      <c r="F60" s="92"/>
       <c r="G60" s="39"/>
-      <c r="L60" s="73"/>
+      <c r="L60" s="70"/>
       <c r="M60" s="47">
         <v>66</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P60" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q60" s="32" t="s">
         <v>22</v>
@@ -7754,7 +7784,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>31</v>
@@ -7762,20 +7792,20 @@
       <c r="E61" s="36">
         <v>10</v>
       </c>
-      <c r="F61" s="95"/>
+      <c r="F61" s="92"/>
       <c r="G61" s="39"/>
-      <c r="L61" s="73"/>
+      <c r="L61" s="70"/>
       <c r="M61" s="47">
         <v>39</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O61" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q61" s="32" t="s">
         <v>22</v>
@@ -7787,7 +7817,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>31</v>
@@ -7795,32 +7825,32 @@
       <c r="E62" s="36">
         <v>9</v>
       </c>
-      <c r="F62" s="95"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="39"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="80">
+      <c r="L62" s="82"/>
+      <c r="M62" s="77">
         <v>40</v>
       </c>
-      <c r="N62" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="O62" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="P62" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q62" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R62" s="82"/>
+      <c r="N62" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="O62" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="P62" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q62" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R62" s="79"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" s="23">
         <v>55</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>31</v>
@@ -7828,32 +7858,32 @@
       <c r="E63" s="36">
         <v>9</v>
       </c>
-      <c r="F63" s="95"/>
+      <c r="F63" s="92"/>
       <c r="G63" s="39"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="69">
+      <c r="L63" s="103"/>
+      <c r="M63" s="66">
         <v>73</v>
       </c>
-      <c r="N63" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="O63" s="51" t="s">
+      <c r="N63" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="O63" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P63" s="51" t="s">
+      <c r="P63" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="51" t="s">
+      <c r="Q63" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R63" s="71"/>
+      <c r="R63" s="68"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="23">
         <v>56</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D64" s="36" t="s">
         <v>31</v>
@@ -7861,20 +7891,20 @@
       <c r="E64" s="36">
         <v>3</v>
       </c>
-      <c r="F64" s="95"/>
+      <c r="F64" s="92"/>
       <c r="G64" s="39"/>
-      <c r="L64" s="73"/>
+      <c r="L64" s="70"/>
       <c r="M64" s="47">
         <v>66</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O64" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="P64" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="P64" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="Q64" s="32" t="s">
         <v>19</v>
@@ -7886,7 +7916,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>31</v>
@@ -7894,20 +7924,20 @@
       <c r="E65" s="36">
         <v>2</v>
       </c>
-      <c r="F65" s="95"/>
+      <c r="F65" s="92"/>
       <c r="G65" s="39"/>
-      <c r="L65" s="73"/>
+      <c r="L65" s="70"/>
       <c r="M65" s="47">
         <v>66</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P65" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q65" s="32" t="s">
         <v>22</v>
@@ -7919,7 +7949,7 @@
         <v>58</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>31</v>
@@ -7927,20 +7957,20 @@
       <c r="E66" s="36">
         <v>4</v>
       </c>
-      <c r="F66" s="95"/>
+      <c r="F66" s="92"/>
       <c r="G66" s="39"/>
-      <c r="L66" s="73"/>
+      <c r="L66" s="70"/>
       <c r="M66" s="47">
         <v>66</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P66" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q66" s="32" t="s">
         <v>22</v>
@@ -7952,7 +7982,7 @@
         <v>59</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D67" s="36" t="s">
         <v>31</v>
@@ -7960,20 +7990,20 @@
       <c r="E67" s="36">
         <v>1</v>
       </c>
-      <c r="F67" s="95"/>
+      <c r="F67" s="92"/>
       <c r="G67" s="39"/>
-      <c r="L67" s="73"/>
+      <c r="L67" s="70"/>
       <c r="M67" s="47">
         <v>41</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O67" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P67" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q67" s="32" t="s">
         <v>22</v>
@@ -7985,7 +8015,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="41" t="s">
         <v>31</v>
@@ -7993,55 +8023,55 @@
       <c r="E68" s="41">
         <v>9</v>
       </c>
-      <c r="F68" s="96"/>
+      <c r="F68" s="93"/>
       <c r="G68" s="42"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="80">
+      <c r="L68" s="82"/>
+      <c r="M68" s="77">
         <v>40</v>
       </c>
-      <c r="N68" s="67" t="s">
+      <c r="N68" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="O68" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="P68" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q68" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R68" s="79"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L69" s="69"/>
+      <c r="M69" s="149">
+        <v>63</v>
+      </c>
+      <c r="N69" s="145" t="s">
         <v>259</v>
       </c>
-      <c r="O68" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="P68" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q68" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="R68" s="82"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L69" s="72"/>
-      <c r="M69" s="143">
-        <v>63</v>
-      </c>
-      <c r="N69" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="O69" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P69" s="51" t="s">
+      <c r="O69" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="P69" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="R69" s="71"/>
+      <c r="R69" s="146"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L70" s="46"/>
-      <c r="M70" s="104">
+      <c r="M70" s="101">
         <v>75</v>
       </c>
       <c r="N70" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P70" s="35" t="s">
         <v>18</v>
@@ -8053,14 +8083,14 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L71" s="46"/>
-      <c r="M71" s="104">
+      <c r="M71" s="101">
         <v>67</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P71" s="32" t="s">
         <v>26</v>
@@ -8072,11 +8102,11 @@
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L72" s="46"/>
-      <c r="M72" s="104">
+      <c r="M72" s="101">
         <v>76</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O72" s="35" t="s">
         <v>99</v>
@@ -8091,11 +8121,11 @@
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L73" s="46"/>
-      <c r="M73" s="104">
+      <c r="M73" s="101">
         <v>80</v>
       </c>
       <c r="N73" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O73" s="32" t="s">
         <v>17</v>
@@ -8110,11 +8140,11 @@
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L74" s="46"/>
-      <c r="M74" s="104">
+      <c r="M74" s="101">
         <v>63</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O74" s="32" t="s">
         <v>20</v>
@@ -8129,11 +8159,11 @@
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L75" s="46"/>
-      <c r="M75" s="104">
+      <c r="M75" s="101">
         <v>64</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O75" s="32" t="s">
         <v>23</v>
@@ -8148,11 +8178,11 @@
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L76" s="46"/>
-      <c r="M76" s="101">
+      <c r="M76" s="98">
         <v>83</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O76" s="35" t="s">
         <v>25</v>
@@ -8167,52 +8197,52 @@
     </row>
     <row r="77" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L77" s="43"/>
-      <c r="M77" s="115">
+      <c r="M77" s="112">
         <v>84</v>
       </c>
-      <c r="N77" s="117" t="s">
+      <c r="N77" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="O77" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="P77" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="115"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L78" s="69"/>
+      <c r="M78" s="149">
+        <v>63</v>
+      </c>
+      <c r="N78" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="O77" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="P77" s="117" t="s">
+      <c r="O78" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="P78" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="Q77" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="R77" s="118"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L78" s="72"/>
-      <c r="M78" s="143">
-        <v>63</v>
-      </c>
-      <c r="N78" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="O78" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P78" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q78" s="51" t="s">
+      <c r="Q78" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="R78" s="71"/>
+      <c r="R78" s="146"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L79" s="46"/>
-      <c r="M79" s="104">
+      <c r="M79" s="101">
         <v>81</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O79" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P79" s="35" t="s">
         <v>18</v>
@@ -8224,14 +8254,14 @@
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L80" s="46"/>
-      <c r="M80" s="104">
+      <c r="M80" s="101">
         <v>67</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P80" s="32" t="s">
         <v>26</v>
@@ -8243,11 +8273,11 @@
     </row>
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L81" s="46"/>
-      <c r="M81" s="104">
+      <c r="M81" s="101">
         <v>61</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O81" s="35" t="s">
         <v>99</v>
@@ -8262,11 +8292,11 @@
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L82" s="46"/>
-      <c r="M82" s="104">
+      <c r="M82" s="101">
         <v>80</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O82" s="32" t="s">
         <v>17</v>
@@ -8281,11 +8311,11 @@
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L83" s="46"/>
-      <c r="M83" s="104">
+      <c r="M83" s="101">
         <v>63</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O83" s="32" t="s">
         <v>20</v>
@@ -8300,11 +8330,11 @@
     </row>
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L84" s="46"/>
-      <c r="M84" s="104">
+      <c r="M84" s="101">
         <v>64</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O84" s="32" t="s">
         <v>23</v>
@@ -8319,11 +8349,11 @@
     </row>
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L85" s="46"/>
-      <c r="M85" s="101">
+      <c r="M85" s="98">
         <v>83</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O85" s="35" t="s">
         <v>25</v>
@@ -8338,52 +8368,52 @@
     </row>
     <row r="86" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L86" s="43"/>
-      <c r="M86" s="115">
+      <c r="M86" s="112">
         <v>84</v>
       </c>
-      <c r="N86" s="117" t="s">
+      <c r="N86" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="O86" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="P86" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q86" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="R86" s="115"/>
+    </row>
+    <row r="87" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L87" s="69"/>
+      <c r="M87" s="149">
+        <v>63</v>
+      </c>
+      <c r="N87" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="O86" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="P86" s="117" t="s">
+      <c r="O87" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="P87" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="Q86" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="R86" s="118"/>
-    </row>
-    <row r="87" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L87" s="72"/>
-      <c r="M87" s="143">
-        <v>63</v>
-      </c>
-      <c r="N87" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="O87" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P87" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q87" s="51" t="s">
+      <c r="Q87" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="R87" s="71"/>
+      <c r="R87" s="146"/>
     </row>
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L88" s="46"/>
-      <c r="M88" s="104">
+      <c r="M88" s="101">
         <v>82</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O88" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P88" s="35" t="s">
         <v>18</v>
@@ -8395,14 +8425,14 @@
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L89" s="46"/>
-      <c r="M89" s="104">
+      <c r="M89" s="101">
         <v>67</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O89" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P89" s="32" t="s">
         <v>26</v>
@@ -8414,11 +8444,11 @@
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L90" s="46"/>
-      <c r="M90" s="104">
+      <c r="M90" s="101">
         <v>73</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O90" s="35" t="s">
         <v>99</v>
@@ -8433,11 +8463,11 @@
     </row>
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L91" s="46"/>
-      <c r="M91" s="104">
+      <c r="M91" s="101">
         <v>80</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="32" t="s">
         <v>17</v>
@@ -8452,11 +8482,11 @@
     </row>
     <row r="92" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L92" s="46"/>
-      <c r="M92" s="104">
+      <c r="M92" s="101">
         <v>63</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="32" t="s">
         <v>20</v>
@@ -8471,11 +8501,11 @@
     </row>
     <row r="93" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L93" s="46"/>
-      <c r="M93" s="104">
+      <c r="M93" s="101">
         <v>64</v>
       </c>
       <c r="N93" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="32" t="s">
         <v>23</v>
@@ -8490,11 +8520,11 @@
     </row>
     <row r="94" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L94" s="46"/>
-      <c r="M94" s="101">
+      <c r="M94" s="98">
         <v>83</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="35" t="s">
         <v>25</v>
@@ -8509,22 +8539,22 @@
     </row>
     <row r="95" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L95" s="43"/>
-      <c r="M95" s="115">
+      <c r="M95" s="112">
         <v>84</v>
       </c>
-      <c r="N95" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="O95" s="89" t="s">
+      <c r="N95" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="O95" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="P95" s="89" t="s">
+      <c r="P95" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="Q95" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="R95" s="90"/>
+      <c r="Q95" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="R95" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/CRM/Mapeos_UBI_CRM_V2.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V2.xlsx
@@ -2517,6 +2517,18 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2580,18 +2592,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3072,7 +3072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3083,7 +3083,7 @@
   <dimension ref="B1:R61"/>
   <sheetViews>
     <sheetView topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3120,28 +3120,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="10"/>
       <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
@@ -3154,13 +3154,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="140"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="24" t="s">
         <v>266</v>
       </c>
@@ -3171,13 +3171,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="141"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
         <v>267</v>
       </c>
@@ -3192,29 +3192,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="131"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3641,22 +3641,22 @@
         <v>169</v>
       </c>
       <c r="L17" s="72"/>
-      <c r="M17" s="142">
+      <c r="M17" s="121">
         <v>48</v>
       </c>
-      <c r="N17" s="141" t="s">
+      <c r="N17" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="O17" s="141" t="s">
+      <c r="O17" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="141" t="s">
+      <c r="P17" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="141" t="s">
+      <c r="Q17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="143" t="s">
+      <c r="R17" s="122" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
         <v>119</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R25" s="48"/>
     </row>
@@ -4970,26 +4970,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="10"/>
       <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
@@ -5002,13 +5002,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="140"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="24" t="s">
         <v>266</v>
       </c>
@@ -5019,13 +5019,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="141"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
         <v>267</v>
       </c>
@@ -5040,29 +5040,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="131"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5139,22 +5139,22 @@
         <v>177</v>
       </c>
       <c r="L9" s="91"/>
-      <c r="M9" s="144">
+      <c r="M9" s="123">
         <v>13</v>
       </c>
-      <c r="N9" s="145" t="s">
+      <c r="N9" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="O9" s="145" t="s">
+      <c r="O9" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="P9" s="145" t="s">
+      <c r="P9" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="145" t="s">
+      <c r="Q9" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="146" t="s">
+      <c r="R9" s="125" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5642,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L76" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87:R87"/>
+    <sheetView tabSelected="1" topLeftCell="L45" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5680,26 +5680,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="34"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="10"/>
       <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
@@ -5712,13 +5712,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="140"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="24" t="s">
         <v>266</v>
       </c>
@@ -5729,13 +5729,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="141"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
         <v>267</v>
       </c>
@@ -5750,29 +5750,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="139" t="s">
+      <c r="I7" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="135"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="119" t="s">
+      <c r="M7" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="131"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6193,22 +6193,22 @@
         <v>45</v>
       </c>
       <c r="L17" s="72"/>
-      <c r="M17" s="147">
+      <c r="M17" s="126">
         <v>83</v>
       </c>
-      <c r="N17" s="148" t="s">
+      <c r="N17" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="O17" s="148" t="s">
+      <c r="O17" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="148" t="s">
+      <c r="P17" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="148" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="143"/>
+      <c r="Q17" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="122"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="23">
@@ -6666,22 +6666,22 @@
         <v>251</v>
       </c>
       <c r="L28" s="72"/>
-      <c r="M28" s="147">
+      <c r="M28" s="126">
         <v>83</v>
       </c>
-      <c r="N28" s="148" t="s">
+      <c r="N28" s="127" t="s">
         <v>255</v>
       </c>
-      <c r="O28" s="148" t="s">
+      <c r="O28" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="148" t="s">
+      <c r="P28" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="Q28" s="148" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="143"/>
+      <c r="Q28" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="122"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="23">
@@ -7069,22 +7069,22 @@
       <c r="F39" s="92"/>
       <c r="G39" s="39"/>
       <c r="L39" s="46"/>
-      <c r="M39" s="147">
+      <c r="M39" s="126">
         <v>83</v>
       </c>
-      <c r="N39" s="148" t="s">
+      <c r="N39" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="O39" s="148" t="s">
+      <c r="O39" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="P39" s="148" t="s">
+      <c r="P39" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="Q39" s="148" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="143"/>
+      <c r="Q39" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="122"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="23">
@@ -7346,7 +7346,7 @@
         <v>119</v>
       </c>
       <c r="Q47" s="32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R47" s="48"/>
     </row>
@@ -8045,22 +8045,22 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L69" s="69"/>
-      <c r="M69" s="149">
+      <c r="M69" s="128">
         <v>63</v>
       </c>
-      <c r="N69" s="145" t="s">
+      <c r="N69" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="O69" s="145" t="s">
+      <c r="O69" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="P69" s="145" t="s">
+      <c r="P69" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Q69" s="145" t="s">
+      <c r="Q69" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="R69" s="146"/>
+      <c r="R69" s="125"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L70" s="46"/>
@@ -8216,22 +8216,22 @@
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L78" s="69"/>
-      <c r="M78" s="149">
+      <c r="M78" s="128">
         <v>63</v>
       </c>
-      <c r="N78" s="145" t="s">
+      <c r="N78" s="124" t="s">
         <v>260</v>
       </c>
-      <c r="O78" s="145" t="s">
+      <c r="O78" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="P78" s="145" t="s">
+      <c r="P78" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Q78" s="145" t="s">
+      <c r="Q78" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="R78" s="146"/>
+      <c r="R78" s="125"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L79" s="46"/>
@@ -8387,22 +8387,22 @@
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L87" s="69"/>
-      <c r="M87" s="149">
+      <c r="M87" s="128">
         <v>63</v>
       </c>
-      <c r="N87" s="145" t="s">
+      <c r="N87" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O87" s="145" t="s">
+      <c r="O87" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="P87" s="145" t="s">
+      <c r="P87" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Q87" s="145" t="s">
+      <c r="Q87" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="R87" s="146"/>
+      <c r="R87" s="125"/>
     </row>
     <row r="88" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L88" s="46"/>

--- a/CRM/Mapeos_UBI_CRM_V2.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="PS_CM" sheetId="10" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="267">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -875,9 +875,6 @@
   </si>
   <si>
     <t>NOM_UBI</t>
-  </si>
-  <si>
-    <t>CHAR(32)</t>
   </si>
   <si>
     <t>FEC_INI</t>
@@ -3072,7 +3069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3082,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3124,7 @@
       <c r="F2" s="134"/>
       <c r="G2" s="10"/>
       <c r="H2" s="146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="147"/>
       <c r="J2" s="148"/>
@@ -3138,14 +3135,14 @@
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="136"/>
       <c r="F3" s="137"/>
       <c r="G3" s="10"/>
       <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="48"/>
     </row>
@@ -3162,7 +3159,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J4" s="31"/>
     </row>
@@ -3179,7 +3176,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -3280,7 +3277,7 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="37">
@@ -3290,14 +3287,14 @@
         <v>42</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L9" s="71"/>
       <c r="M9" s="49">
         <v>54</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O9" s="50" t="s">
         <v>99</v>
@@ -3309,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="R9" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -3332,17 +3329,17 @@
         <v>55</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="23">
         <v>55</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>100</v>
@@ -3385,7 +3382,7 @@
         <v>56</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>20</v>
@@ -3428,7 +3425,7 @@
         <v>57</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>23</v>
@@ -3461,17 +3458,17 @@
         <v>58</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="23">
         <v>58</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O13" s="35" t="s">
         <v>25</v>
@@ -3514,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>101</v>
@@ -3526,7 +3523,7 @@
         <v>19</v>
       </c>
       <c r="R14" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -3549,17 +3546,17 @@
         <v>60</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="23">
         <v>65</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>103</v>
@@ -3602,13 +3599,13 @@
         <v>60</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="32" t="s">
-        <v>105</v>
+      <c r="P16" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="Q16" s="32" t="s">
         <v>22</v>
@@ -3635,20 +3632,20 @@
         <v>62</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="121">
         <v>48</v>
       </c>
       <c r="N17" s="120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O17" s="120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P17" s="120" t="s">
         <v>21</v>
@@ -3657,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="R17" s="122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -3680,17 +3677,17 @@
         <v>63</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K18" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L18" s="72"/>
       <c r="M18" s="62">
         <v>70</v>
       </c>
       <c r="N18" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O18" s="59" t="s">
         <v>27</v>
@@ -3723,23 +3720,23 @@
         <v>64</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L19" s="73"/>
       <c r="M19" s="63">
         <v>3</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O19" s="64" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="64" t="s">
         <v>22</v>
@@ -3776,7 +3773,7 @@
         <v>54</v>
       </c>
       <c r="N20" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O20" s="50" t="s">
         <v>99</v>
@@ -3788,7 +3785,7 @@
         <v>19</v>
       </c>
       <c r="R20" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -3811,20 +3808,20 @@
         <v>66</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L21" s="81"/>
       <c r="M21" s="47">
         <v>62</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>18</v>
@@ -3854,20 +3851,20 @@
         <v>67</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L22" s="81"/>
       <c r="M22" s="47">
         <v>59</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>18</v>
@@ -3897,20 +3894,20 @@
         <v>68</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L23" s="81"/>
       <c r="M23" s="47">
         <v>63</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>18</v>
@@ -3940,20 +3937,20 @@
         <v>69</v>
       </c>
       <c r="J24" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K24" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>263</v>
       </c>
       <c r="L24" s="81"/>
       <c r="M24" s="47">
         <v>64</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>18</v>
@@ -3983,23 +3980,23 @@
         <v>70</v>
       </c>
       <c r="J25" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K25" s="116" t="s">
         <v>264</v>
-      </c>
-      <c r="K25" s="116" t="s">
-        <v>265</v>
       </c>
       <c r="L25" s="81"/>
       <c r="M25" s="47">
         <v>65</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O25" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="Q25" s="32" t="s">
         <v>22</v>
@@ -4027,16 +4024,16 @@
         <v>65</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O26" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="P26" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>19</v>
+      <c r="Q26" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R26" s="48"/>
     </row>
@@ -4061,13 +4058,13 @@
         <v>6</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O27" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>123</v>
       </c>
       <c r="Q27" s="32" t="s">
         <v>19</v>
@@ -4095,16 +4092,16 @@
         <v>65</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O28" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q28" s="32" t="s">
-        <v>19</v>
+      <c r="Q28" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R28" s="48"/>
     </row>
@@ -4129,16 +4126,16 @@
         <v>65</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O29" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="P29" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>19</v>
+      <c r="Q29" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R29" s="48"/>
     </row>
@@ -4163,16 +4160,16 @@
         <v>65</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="Q30" s="32" t="s">
-        <v>19</v>
+      <c r="Q30" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R30" s="48"/>
     </row>
@@ -4197,16 +4194,16 @@
         <v>65</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q31" s="32" t="s">
-        <v>19</v>
+        <v>124</v>
+      </c>
+      <c r="Q31" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R31" s="48"/>
     </row>
@@ -4231,16 +4228,16 @@
         <v>65</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q32" s="32" t="s">
-        <v>19</v>
+        <v>118</v>
+      </c>
+      <c r="Q32" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R32" s="48"/>
     </row>
@@ -4265,16 +4262,16 @@
         <v>65</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P33" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q33" s="32" t="s">
-        <v>19</v>
+        <v>124</v>
+      </c>
+      <c r="Q33" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R33" s="48"/>
     </row>
@@ -4299,10 +4296,10 @@
         <v>66</v>
       </c>
       <c r="N34" s="78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O34" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P34" s="64" t="s">
         <v>26</v>
@@ -4333,7 +4330,7 @@
         <v>54</v>
       </c>
       <c r="N35" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O35" s="50" t="s">
         <v>99</v>
@@ -4345,7 +4342,7 @@
         <v>19</v>
       </c>
       <c r="R35" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
@@ -4369,16 +4366,16 @@
         <v>65</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O36" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="P36" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="P36" s="32" t="s">
-        <v>139</v>
-      </c>
       <c r="Q36" s="32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R36" s="48"/>
     </row>
@@ -4403,13 +4400,13 @@
         <v>65</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P37" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="32" t="s">
         <v>22</v>
@@ -4437,13 +4434,13 @@
         <v>65</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P38" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q38" s="32" t="s">
         <v>22</v>
@@ -4471,13 +4468,13 @@
         <v>67</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P39" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q39" s="32" t="s">
         <v>22</v>
@@ -4505,13 +4502,13 @@
         <v>68</v>
       </c>
       <c r="N40" s="78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P40" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="64" t="s">
         <v>22</v>
@@ -4539,7 +4536,7 @@
         <v>54</v>
       </c>
       <c r="N41" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O41" s="50" t="s">
         <v>99</v>
@@ -4551,7 +4548,7 @@
         <v>19</v>
       </c>
       <c r="R41" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4575,10 +4572,10 @@
         <v>39</v>
       </c>
       <c r="N42" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O42" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P42" s="53" t="s">
         <v>102</v>
@@ -4971,13 +4968,13 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="133"/>
       <c r="F2" s="134"/>
       <c r="G2" s="10"/>
       <c r="H2" s="146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="147"/>
       <c r="J2" s="148"/>
@@ -4993,7 +4990,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="48"/>
     </row>
@@ -5010,7 +5007,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J4" s="31"/>
     </row>
@@ -5027,7 +5024,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -5133,20 +5130,20 @@
         <v>16</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L9" s="91"/>
       <c r="M9" s="123">
         <v>13</v>
       </c>
       <c r="N9" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O9" s="124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P9" s="124" t="s">
         <v>21</v>
@@ -5155,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -5178,20 +5175,20 @@
         <v>17</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" s="75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L10" s="91"/>
       <c r="M10" s="84">
         <v>16</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P10" s="35" t="s">
         <v>18</v>
@@ -5221,20 +5218,20 @@
         <v>18</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L11" s="91"/>
       <c r="M11" s="84">
         <v>23</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>26</v>
@@ -5259,7 +5256,7 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="47">
@@ -5276,7 +5273,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>99</v>
@@ -5288,7 +5285,7 @@
         <v>19</v>
       </c>
       <c r="R12" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -5296,7 +5293,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>32</v>
@@ -5321,7 +5318,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>17</v>
@@ -5333,7 +5330,7 @@
         <v>19</v>
       </c>
       <c r="R13" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -5341,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>21</v>
@@ -5356,17 +5353,17 @@
         <v>21</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L14" s="81"/>
       <c r="M14" s="90">
         <v>19</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" s="32" t="s">
         <v>20</v>
@@ -5384,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>31</v>
@@ -5409,7 +5406,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O15" s="32" t="s">
         <v>23</v>
@@ -5427,7 +5424,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>32</v>
@@ -5442,17 +5439,17 @@
         <v>23</v>
       </c>
       <c r="J16" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="48" t="s">
         <v>175</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>176</v>
       </c>
       <c r="L16" s="81"/>
       <c r="M16" s="23">
         <v>21</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>25</v>
@@ -5480,24 +5477,24 @@
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="47">
         <v>24</v>
       </c>
       <c r="J17" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>263</v>
       </c>
       <c r="L17" s="117"/>
       <c r="M17" s="85">
         <v>25</v>
       </c>
       <c r="N17" s="86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O17" s="86" t="s">
         <v>27</v>
@@ -5515,7 +5512,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>31</v>
@@ -5530,10 +5527,10 @@
         <v>25</v>
       </c>
       <c r="J18" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="116" t="s">
         <v>264</v>
-      </c>
-      <c r="K18" s="116" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -5541,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>21</v>
@@ -5642,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L45" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView topLeftCell="L82" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5681,13 +5678,13 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" s="133"/>
       <c r="F2" s="134"/>
       <c r="G2" s="10"/>
       <c r="H2" s="146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="147"/>
       <c r="J2" s="148"/>
@@ -5703,7 +5700,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J3" s="48"/>
     </row>
@@ -5720,7 +5717,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J4" s="31"/>
     </row>
@@ -5737,7 +5734,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="120"/>
       <c r="I5" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -5828,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>31</v>
@@ -5843,17 +5840,17 @@
         <v>61</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K9" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L9" s="71"/>
       <c r="M9" s="97">
         <v>61</v>
       </c>
       <c r="N9" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O9" s="95" t="s">
         <v>99</v>
@@ -5871,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>31</v>
@@ -5886,17 +5883,17 @@
         <v>62</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" s="75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="98">
         <v>62</v>
       </c>
       <c r="N10" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O10" s="94" t="s">
         <v>100</v>
@@ -5914,7 +5911,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>32</v>
@@ -5939,7 +5936,7 @@
         <v>63</v>
       </c>
       <c r="N11" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O11" s="94" t="s">
         <v>20</v>
@@ -5957,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>31</v>
@@ -5982,7 +5979,7 @@
         <v>64</v>
       </c>
       <c r="N12" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O12" s="94" t="s">
         <v>23</v>
@@ -6000,7 +5997,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>31</v>
@@ -6015,17 +6012,17 @@
         <v>65</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="98">
         <v>65</v>
       </c>
       <c r="N13" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O13" s="94" t="s">
         <v>25</v>
@@ -6043,7 +6040,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>31</v>
@@ -6058,7 +6055,7 @@
         <v>66</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>46</v>
@@ -6068,7 +6065,7 @@
         <v>68</v>
       </c>
       <c r="N14" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O14" s="94" t="s">
         <v>101</v>
@@ -6086,7 +6083,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>31</v>
@@ -6101,17 +6098,17 @@
         <v>67</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="99">
         <v>69</v>
       </c>
       <c r="N15" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O15" s="94" t="s">
         <v>103</v>
@@ -6129,10 +6126,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>189</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>190</v>
       </c>
       <c r="E16" s="36">
         <v>4000</v>
@@ -6144,23 +6141,23 @@
         <v>68</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L16" s="72"/>
       <c r="M16" s="100">
         <v>39</v>
       </c>
       <c r="N16" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O16" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="94" t="s">
-        <v>107</v>
+      <c r="P16" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="Q16" s="94" t="s">
         <v>22</v>
@@ -6172,7 +6169,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>31</v>
@@ -6197,10 +6194,10 @@
         <v>83</v>
       </c>
       <c r="N17" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O17" s="127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P17" s="127" t="s">
         <v>21</v>
@@ -6215,7 +6212,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>31</v>
@@ -6230,17 +6227,17 @@
         <v>70</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" s="72"/>
       <c r="M18" s="112">
         <v>84</v>
       </c>
       <c r="N18" s="113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O18" s="113" t="s">
         <v>27</v>
@@ -6258,7 +6255,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>21</v>
@@ -6273,23 +6270,23 @@
         <v>71</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" s="73"/>
       <c r="M19" s="102">
         <v>22</v>
       </c>
       <c r="N19" s="96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O19" s="96" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="96" t="s">
         <v>22</v>
@@ -6301,7 +6298,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>31</v>
@@ -6316,17 +6313,17 @@
         <v>72</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L20" s="72"/>
       <c r="M20" s="49">
         <v>73</v>
       </c>
       <c r="N20" s="95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O20" s="95" t="s">
         <v>99</v>
@@ -6359,17 +6356,17 @@
         <v>73</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L21" s="72"/>
       <c r="M21" s="84">
         <v>74</v>
       </c>
       <c r="N21" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O21" s="94" t="s">
         <v>100</v>
@@ -6387,7 +6384,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>31</v>
@@ -6402,17 +6399,17 @@
         <v>74</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L22" s="72"/>
       <c r="M22" s="84">
         <v>63</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O22" s="94" t="s">
         <v>20</v>
@@ -6445,17 +6442,17 @@
         <v>75</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L23" s="72"/>
       <c r="M23" s="84">
         <v>64</v>
       </c>
       <c r="N23" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O23" s="94" t="s">
         <v>23</v>
@@ -6473,7 +6470,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>31</v>
@@ -6488,17 +6485,17 @@
         <v>76</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L24" s="72"/>
       <c r="M24" s="84">
         <v>65</v>
       </c>
       <c r="N24" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O24" s="94" t="s">
         <v>25</v>
@@ -6516,7 +6513,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>31</v>
@@ -6531,17 +6528,17 @@
         <v>77</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L25" s="72"/>
       <c r="M25" s="90">
         <v>78</v>
       </c>
       <c r="N25" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O25" s="94" t="s">
         <v>101</v>
@@ -6559,7 +6556,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>31</v>
@@ -6574,17 +6571,17 @@
         <v>78</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L26" s="72"/>
       <c r="M26" s="90">
         <v>69</v>
       </c>
       <c r="N26" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O26" s="94" t="s">
         <v>103</v>
@@ -6602,7 +6599,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>31</v>
@@ -6617,23 +6614,23 @@
         <v>79</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L27" s="72"/>
       <c r="M27" s="23">
         <v>41</v>
       </c>
       <c r="N27" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O27" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="94" t="s">
-        <v>107</v>
+      <c r="P27" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="Q27" s="94" t="s">
         <v>22</v>
@@ -6645,7 +6642,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>31</v>
@@ -6660,20 +6657,20 @@
         <v>80</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L28" s="72"/>
       <c r="M28" s="126">
         <v>83</v>
       </c>
       <c r="N28" s="127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O28" s="127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P28" s="127" t="s">
         <v>21</v>
@@ -6703,17 +6700,17 @@
         <v>81</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L29" s="72"/>
       <c r="M29" s="112">
         <v>84</v>
       </c>
       <c r="N29" s="113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O29" s="113" t="s">
         <v>27</v>
@@ -6746,23 +6743,23 @@
         <v>82</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L30" s="73"/>
       <c r="M30" s="77">
         <v>22</v>
       </c>
       <c r="N30" s="96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O30" s="96" t="s">
         <v>28</v>
       </c>
       <c r="P30" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="96" t="s">
         <v>22</v>
@@ -6789,17 +6786,17 @@
         <v>83</v>
       </c>
       <c r="J31" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="48" t="s">
         <v>262</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>263</v>
       </c>
       <c r="L31" s="118"/>
       <c r="M31" s="49">
         <v>76</v>
       </c>
       <c r="N31" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O31" s="95" t="s">
         <v>99</v>
@@ -6832,17 +6829,17 @@
         <v>84</v>
       </c>
       <c r="J32" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" s="116" t="s">
         <v>264</v>
-      </c>
-      <c r="K32" s="116" t="s">
-        <v>265</v>
       </c>
       <c r="L32" s="72"/>
       <c r="M32" s="84">
         <v>77</v>
       </c>
       <c r="N32" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O32" s="94" t="s">
         <v>100</v>
@@ -6875,7 +6872,7 @@
         <v>63</v>
       </c>
       <c r="N33" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O33" s="94" t="s">
         <v>20</v>
@@ -6908,7 +6905,7 @@
         <v>64</v>
       </c>
       <c r="N34" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O34" s="94" t="s">
         <v>23</v>
@@ -6941,7 +6938,7 @@
         <v>65</v>
       </c>
       <c r="N35" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O35" s="94" t="s">
         <v>25</v>
@@ -6974,7 +6971,7 @@
         <v>79</v>
       </c>
       <c r="N36" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O36" s="94" t="s">
         <v>101</v>
@@ -7007,7 +7004,7 @@
         <v>69</v>
       </c>
       <c r="N37" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O37" s="94" t="s">
         <v>103</v>
@@ -7040,13 +7037,13 @@
         <v>22</v>
       </c>
       <c r="N38" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O38" s="94" t="s">
         <v>104</v>
       </c>
       <c r="P38" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q38" s="94" t="s">
         <v>22</v>
@@ -7073,10 +7070,10 @@
         <v>83</v>
       </c>
       <c r="N39" s="127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O39" s="127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P39" s="127" t="s">
         <v>21</v>
@@ -7106,7 +7103,7 @@
         <v>84</v>
       </c>
       <c r="N40" s="113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O40" s="113" t="s">
         <v>27</v>
@@ -7139,13 +7136,13 @@
         <v>22</v>
       </c>
       <c r="N41" s="96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O41" s="96" t="s">
         <v>28</v>
       </c>
       <c r="P41" s="96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q41" s="96" t="s">
         <v>22</v>
@@ -7172,7 +7169,7 @@
         <v>61</v>
       </c>
       <c r="N42" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O42" s="50" t="s">
         <v>99</v>
@@ -7205,10 +7202,10 @@
         <v>70</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P43" s="32" t="s">
         <v>18</v>
@@ -7238,10 +7235,10 @@
         <v>69</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P44" s="32" t="s">
         <v>18</v>
@@ -7271,10 +7268,10 @@
         <v>71</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P45" s="32" t="s">
         <v>18</v>
@@ -7304,10 +7301,10 @@
         <v>72</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P46" s="32" t="s">
         <v>18</v>
@@ -7337,13 +7334,13 @@
         <v>66</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="P47" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="Q47" s="32" t="s">
         <v>22</v>
@@ -7370,16 +7367,16 @@
         <v>66</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="P48" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q48" s="32" t="s">
-        <v>19</v>
+      <c r="Q48" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R48" s="48"/>
     </row>
@@ -7388,7 +7385,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>31</v>
@@ -7403,13 +7400,13 @@
         <v>22</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P49" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q49" s="32" t="s">
         <v>19</v>
@@ -7421,7 +7418,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>31</v>
@@ -7436,16 +7433,16 @@
         <v>66</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O50" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="P50" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q50" s="32" t="s">
-        <v>19</v>
+      <c r="Q50" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R50" s="48"/>
     </row>
@@ -7454,7 +7451,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>31</v>
@@ -7469,16 +7466,16 @@
         <v>66</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O51" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="P51" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q51" s="32" t="s">
-        <v>19</v>
+      <c r="Q51" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R51" s="48"/>
     </row>
@@ -7487,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>31</v>
@@ -7502,16 +7499,16 @@
         <v>66</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P52" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="Q52" s="32" t="s">
-        <v>19</v>
+      <c r="Q52" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R52" s="48"/>
     </row>
@@ -7520,7 +7517,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>31</v>
@@ -7535,16 +7532,16 @@
         <v>66</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P53" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q53" s="32" t="s">
-        <v>19</v>
+        <v>124</v>
+      </c>
+      <c r="Q53" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R53" s="48"/>
     </row>
@@ -7553,7 +7550,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" s="36" t="s">
         <v>31</v>
@@ -7568,16 +7565,16 @@
         <v>66</v>
       </c>
       <c r="N54" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P54" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q54" s="32" t="s">
-        <v>19</v>
+        <v>118</v>
+      </c>
+      <c r="Q54" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R54" s="48"/>
     </row>
@@ -7586,7 +7583,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="36" t="s">
         <v>31</v>
@@ -7601,16 +7598,16 @@
         <v>66</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P55" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q55" s="32" t="s">
-        <v>19</v>
+        <v>124</v>
+      </c>
+      <c r="Q55" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R55" s="48"/>
     </row>
@@ -7619,7 +7616,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="36" t="s">
         <v>31</v>
@@ -7634,10 +7631,10 @@
         <v>69</v>
       </c>
       <c r="N56" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P56" s="64" t="s">
         <v>26</v>
@@ -7652,7 +7649,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="36" t="s">
         <v>31</v>
@@ -7667,7 +7664,7 @@
         <v>61</v>
       </c>
       <c r="N57" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O57" s="50" t="s">
         <v>99</v>
@@ -7685,7 +7682,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="36" t="s">
         <v>31</v>
@@ -7700,16 +7697,16 @@
         <v>66</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O58" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="P58" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="P58" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q58" s="32" t="s">
-        <v>19</v>
+      <c r="Q58" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R58" s="48"/>
     </row>
@@ -7718,7 +7715,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" s="36" t="s">
         <v>31</v>
@@ -7733,13 +7730,13 @@
         <v>66</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P59" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q59" s="32" t="s">
         <v>22</v>
@@ -7751,7 +7748,7 @@
         <v>52</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>31</v>
@@ -7766,13 +7763,13 @@
         <v>66</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P60" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q60" s="32" t="s">
         <v>22</v>
@@ -7784,7 +7781,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="36" t="s">
         <v>31</v>
@@ -7799,13 +7796,13 @@
         <v>39</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O61" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P61" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q61" s="32" t="s">
         <v>22</v>
@@ -7817,7 +7814,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>31</v>
@@ -7832,13 +7829,13 @@
         <v>40</v>
       </c>
       <c r="N62" s="64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O62" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P62" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q62" s="64" t="s">
         <v>22</v>
@@ -7850,7 +7847,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>31</v>
@@ -7865,7 +7862,7 @@
         <v>73</v>
       </c>
       <c r="N63" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O63" s="50" t="s">
         <v>99</v>
@@ -7883,7 +7880,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="36" t="s">
         <v>31</v>
@@ -7898,16 +7895,16 @@
         <v>66</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O64" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="P64" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="P64" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q64" s="32" t="s">
-        <v>19</v>
+      <c r="Q64" s="94" t="s">
+        <v>22</v>
       </c>
       <c r="R64" s="48"/>
     </row>
@@ -7916,7 +7913,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>31</v>
@@ -7931,13 +7928,13 @@
         <v>66</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P65" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q65" s="32" t="s">
         <v>22</v>
@@ -7949,7 +7946,7 @@
         <v>58</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>31</v>
@@ -7964,13 +7961,13 @@
         <v>66</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P66" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q66" s="32" t="s">
         <v>22</v>
@@ -7982,7 +7979,7 @@
         <v>59</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" s="36" t="s">
         <v>31</v>
@@ -7997,13 +7994,13 @@
         <v>41</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O67" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P67" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q67" s="32" t="s">
         <v>22</v>
@@ -8015,7 +8012,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="41" t="s">
         <v>31</v>
@@ -8030,13 +8027,13 @@
         <v>40</v>
       </c>
       <c r="N68" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P68" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q68" s="64" t="s">
         <v>22</v>
@@ -8049,10 +8046,10 @@
         <v>63</v>
       </c>
       <c r="N69" s="124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O69" s="124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P69" s="124" t="s">
         <v>21</v>
@@ -8068,10 +8065,10 @@
         <v>75</v>
       </c>
       <c r="N70" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P70" s="35" t="s">
         <v>18</v>
@@ -8087,10 +8084,10 @@
         <v>67</v>
       </c>
       <c r="N71" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O71" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P71" s="32" t="s">
         <v>26</v>
@@ -8106,7 +8103,7 @@
         <v>76</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O72" s="35" t="s">
         <v>99</v>
@@ -8125,7 +8122,7 @@
         <v>80</v>
       </c>
       <c r="N73" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O73" s="32" t="s">
         <v>17</v>
@@ -8144,7 +8141,7 @@
         <v>63</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O74" s="32" t="s">
         <v>20</v>
@@ -8163,7 +8160,7 @@
         <v>64</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O75" s="32" t="s">
         <v>23</v>
@@ -8182,7 +8179,7 @@
         <v>83</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O76" s="35" t="s">
         <v>25</v>
@@ -8201,7 +8198,7 @@
         <v>84</v>
       </c>
       <c r="N77" s="114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O77" s="114" t="s">
         <v>27</v>
@@ -8220,10 +8217,10 @@
         <v>63</v>
       </c>
       <c r="N78" s="124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O78" s="124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P78" s="124" t="s">
         <v>21</v>
@@ -8239,10 +8236,10 @@
         <v>81</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O79" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P79" s="35" t="s">
         <v>18</v>
@@ -8258,10 +8255,10 @@
         <v>67</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P80" s="32" t="s">
         <v>26</v>
@@ -8277,7 +8274,7 @@
         <v>61</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O81" s="35" t="s">
         <v>99</v>
@@ -8296,7 +8293,7 @@
         <v>80</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O82" s="32" t="s">
         <v>17</v>
@@ -8315,7 +8312,7 @@
         <v>63</v>
       </c>
       <c r="N83" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O83" s="32" t="s">
         <v>20</v>
@@ -8334,7 +8331,7 @@
         <v>64</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O84" s="32" t="s">
         <v>23</v>
@@ -8353,7 +8350,7 @@
         <v>83</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O85" s="35" t="s">
         <v>25</v>
@@ -8372,7 +8369,7 @@
         <v>84</v>
       </c>
       <c r="N86" s="114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O86" s="114" t="s">
         <v>27</v>
@@ -8391,10 +8388,10 @@
         <v>63</v>
       </c>
       <c r="N87" s="124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O87" s="124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P87" s="124" t="s">
         <v>21</v>
@@ -8410,10 +8407,10 @@
         <v>82</v>
       </c>
       <c r="N88" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O88" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P88" s="35" t="s">
         <v>18</v>
@@ -8429,10 +8426,10 @@
         <v>67</v>
       </c>
       <c r="N89" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O89" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P89" s="32" t="s">
         <v>26</v>
@@ -8448,7 +8445,7 @@
         <v>73</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="35" t="s">
         <v>99</v>
@@ -8467,7 +8464,7 @@
         <v>80</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="32" t="s">
         <v>17</v>
@@ -8486,7 +8483,7 @@
         <v>63</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="32" t="s">
         <v>20</v>
@@ -8505,7 +8502,7 @@
         <v>64</v>
       </c>
       <c r="N93" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="32" t="s">
         <v>23</v>
@@ -8524,7 +8521,7 @@
         <v>83</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="35" t="s">
         <v>25</v>
@@ -8543,7 +8540,7 @@
         <v>84</v>
       </c>
       <c r="N95" s="86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O95" s="86" t="s">
         <v>27</v>

--- a/CRM/Mapeos_UBI_CRM_V2.xlsx
+++ b/CRM/Mapeos_UBI_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="375" windowWidth="9225" windowHeight="4650" tabRatio="583" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PS_CM" sheetId="10" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="267">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3069,7 +3069,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3079,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5639,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="L82" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6221,7 +6221,9 @@
         <v>10</v>
       </c>
       <c r="F18" s="36"/>
-      <c r="G18" s="107"/>
+      <c r="G18" s="107" t="s">
+        <v>162</v>
+      </c>
       <c r="H18" s="46"/>
       <c r="I18" s="101">
         <v>70</v>
